--- a/usernames_database_original.xlsx
+++ b/usernames_database_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujal Karmakar\Desktop\Desktop\Data Analyst\Instagram Data Scrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E05DC6-44B6-40F1-BB61-137BCB5F5F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29C177B-1EE4-40D7-98F1-5DA2E2B0D93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9611" uniqueCount="8722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9791" uniqueCount="8871">
   <si>
     <t>Username</t>
   </si>
@@ -26186,6 +26186,453 @@
   </si>
   <si>
     <t>shainblumphotography</t>
+  </si>
+  <si>
+    <t>yemekturkiyecom</t>
+  </si>
+  <si>
+    <t>ross_schram</t>
+  </si>
+  <si>
+    <t>chipphillipsphoto</t>
+  </si>
+  <si>
+    <t>mathieulelay</t>
+  </si>
+  <si>
+    <t>tallteef</t>
+  </si>
+  <si>
+    <t>juangpizza</t>
+  </si>
+  <si>
+    <t>rjhooperphoto</t>
+  </si>
+  <si>
+    <t>chavomacias</t>
+  </si>
+  <si>
+    <t>toji.defaulter</t>
+  </si>
+  <si>
+    <t>rasmus_hjortshoj</t>
+  </si>
+  <si>
+    <t>dogteamone</t>
+  </si>
+  <si>
+    <t>ali2009harobi</t>
+  </si>
+  <si>
+    <t>autobiografias.cl</t>
+  </si>
+  <si>
+    <t>irohit5ingh</t>
+  </si>
+  <si>
+    <t>stefan_forster_photography</t>
+  </si>
+  <si>
+    <t>nigel.danson</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>oonarchitecture</t>
+  </si>
+  <si>
+    <t>yb.masuda</t>
+  </si>
+  <si>
+    <t>dagkamni</t>
+  </si>
+  <si>
+    <t>tomparkr</t>
+  </si>
+  <si>
+    <t>benyamin_22hn</t>
+  </si>
+  <si>
+    <t>bellnjerry</t>
+  </si>
+  <si>
+    <t>epic.land</t>
+  </si>
+  <si>
+    <t>denisereisarte</t>
+  </si>
+  <si>
+    <t>jprietoa</t>
+  </si>
+  <si>
+    <t>lasvegaspaco</t>
+  </si>
+  <si>
+    <t>mohitsolanki11</t>
+  </si>
+  <si>
+    <t>james_david_mckenna</t>
+  </si>
+  <si>
+    <t>jlambrosi</t>
+  </si>
+  <si>
+    <t>djdashka86</t>
+  </si>
+  <si>
+    <t>dan_pope_meteorologist</t>
+  </si>
+  <si>
+    <t>majeedbadizadegan</t>
+  </si>
+  <si>
+    <t>cm.images</t>
+  </si>
+  <si>
+    <t>amybookerphotography</t>
+  </si>
+  <si>
+    <t>brutal_architecture</t>
+  </si>
+  <si>
+    <t>love.eat.repeatt</t>
+  </si>
+  <si>
+    <t>erictabuchi</t>
+  </si>
+  <si>
+    <t>blaqbook_</t>
+  </si>
+  <si>
+    <t>nitsche_arquitetos</t>
+  </si>
+  <si>
+    <t>fotermagazine</t>
+  </si>
+  <si>
+    <t>gitalex</t>
+  </si>
+  <si>
+    <t>archiproducts</t>
+  </si>
+  <si>
+    <t>kitato</t>
+  </si>
+  <si>
+    <t>amos_07__</t>
+  </si>
+  <si>
+    <t>ai.visuals</t>
+  </si>
+  <si>
+    <t>firsthandaccount</t>
+  </si>
+  <si>
+    <t>carolinerotterdam</t>
+  </si>
+  <si>
+    <t>sebarchitecture</t>
+  </si>
+  <si>
+    <t>griffinlamb</t>
+  </si>
+  <si>
+    <t>dennispolklaeserphotography</t>
+  </si>
+  <si>
+    <t>studioanneholtrop</t>
+  </si>
+  <si>
+    <t>travelicious_88</t>
+  </si>
+  <si>
+    <t>archilovers</t>
+  </si>
+  <si>
+    <t>movethemoon</t>
+  </si>
+  <si>
+    <t>ayazis_2</t>
+  </si>
+  <si>
+    <t>ethon.travel</t>
+  </si>
+  <si>
+    <t>outofthewoods</t>
+  </si>
+  <si>
+    <t>roaminglarry</t>
+  </si>
+  <si>
+    <t>saxonkent</t>
+  </si>
+  <si>
+    <t>bobborson</t>
+  </si>
+  <si>
+    <t>dhruv_ojha_09</t>
+  </si>
+  <si>
+    <t>interiordesign_addict</t>
+  </si>
+  <si>
+    <t>ilcontephotography</t>
+  </si>
+  <si>
+    <t>travisburkephotography</t>
+  </si>
+  <si>
+    <t>jriffeyphotog</t>
+  </si>
+  <si>
+    <t>twosaintspetphotography</t>
+  </si>
+  <si>
+    <t>oye_zaika</t>
+  </si>
+  <si>
+    <t>panvelvet</t>
+  </si>
+  <si>
+    <t>hashimoto_toshiaki</t>
+  </si>
+  <si>
+    <t>photo_shorttrip</t>
+  </si>
+  <si>
+    <t>wilfridomercado</t>
+  </si>
+  <si>
+    <t>westsnowboarding</t>
+  </si>
+  <si>
+    <t>area_bykasia</t>
+  </si>
+  <si>
+    <t>sleepingforest1226</t>
+  </si>
+  <si>
+    <t>yannislolos</t>
+  </si>
+  <si>
+    <t>hossegorofficiel</t>
+  </si>
+  <si>
+    <t>columbiagsapp</t>
+  </si>
+  <si>
+    <t>studiolowsheen</t>
+  </si>
+  <si>
+    <t>adventureluxlife</t>
+  </si>
+  <si>
+    <t>joanafranca</t>
+  </si>
+  <si>
+    <t>marco.photos</t>
+  </si>
+  <si>
+    <t>florisvanderpoel</t>
+  </si>
+  <si>
+    <t>food__junction</t>
+  </si>
+  <si>
+    <t>rob_prins_</t>
+  </si>
+  <si>
+    <t>allofrenders</t>
+  </si>
+  <si>
+    <t>memartori</t>
+  </si>
+  <si>
+    <t>jimdratfieldspetography</t>
+  </si>
+  <si>
+    <t>loewe7</t>
+  </si>
+  <si>
+    <t>we_are_foody_1</t>
+  </si>
+  <si>
+    <t>robynarouty</t>
+  </si>
+  <si>
+    <t>tokyocameraclub</t>
+  </si>
+  <si>
+    <t>zaninidezanine</t>
+  </si>
+  <si>
+    <t>tschang</t>
+  </si>
+  <si>
+    <t>rafatrist</t>
+  </si>
+  <si>
+    <t>calistreetshots</t>
+  </si>
+  <si>
+    <t>andrewoptics</t>
+  </si>
+  <si>
+    <t>khushii_yohighness</t>
+  </si>
+  <si>
+    <t>saatchiphoto</t>
+  </si>
+  <si>
+    <t>taylor_photo</t>
+  </si>
+  <si>
+    <t>_spicyandtastyfood_</t>
+  </si>
+  <si>
+    <t>hirozzzz</t>
+  </si>
+  <si>
+    <t>johanhallbergcampbell</t>
+  </si>
+  <si>
+    <t>bird.pics_</t>
+  </si>
+  <si>
+    <t>earthpostdaily</t>
+  </si>
+  <si>
+    <t>newmilkyway</t>
+  </si>
+  <si>
+    <t>clp_dancer2</t>
+  </si>
+  <si>
+    <t>shara.beatssf</t>
+  </si>
+  <si>
+    <t>samoetiker</t>
+  </si>
+  <si>
+    <t>vikkeview</t>
+  </si>
+  <si>
+    <t>best.house</t>
+  </si>
+  <si>
+    <t>av.jit.bis_kolkata</t>
+  </si>
+  <si>
+    <t>laurianghinitoiu</t>
+  </si>
+  <si>
+    <t>swissandsassy</t>
+  </si>
+  <si>
+    <t>foodiee.woodiee</t>
+  </si>
+  <si>
+    <t>cotaparedesarquitectos</t>
+  </si>
+  <si>
+    <t>dorit_sela</t>
+  </si>
+  <si>
+    <t>mountain.vvibes</t>
+  </si>
+  <si>
+    <t>thia.g.o</t>
+  </si>
+  <si>
+    <t>ayaz_orakci</t>
+  </si>
+  <si>
+    <t>1_unlimited</t>
+  </si>
+  <si>
+    <t>llewllewtoo</t>
+  </si>
+  <si>
+    <t>hayleyam</t>
+  </si>
+  <si>
+    <t>dailyoverview</t>
+  </si>
+  <si>
+    <t>jlvm33</t>
+  </si>
+  <si>
+    <t>followmetosiestakey</t>
+  </si>
+  <si>
+    <t>aseriesofrooms</t>
+  </si>
+  <si>
+    <t>nascimento.hm</t>
+  </si>
+  <si>
+    <t>is400o</t>
+  </si>
+  <si>
+    <t>lotter_live</t>
+  </si>
+  <si>
+    <t>id4os6</t>
+  </si>
+  <si>
+    <t>taloob_qtr</t>
+  </si>
+  <si>
+    <t>heiko.gerlicher</t>
+  </si>
+  <si>
+    <t>theyummymania</t>
+  </si>
+  <si>
+    <t>last_of_us_project</t>
+  </si>
+  <si>
+    <t>seabaheli</t>
+  </si>
+  <si>
+    <t>girault_officiel</t>
+  </si>
+  <si>
+    <t>photo_ol</t>
+  </si>
+  <si>
+    <t>yako_flpr3</t>
+  </si>
+  <si>
+    <t>philipkyle</t>
+  </si>
+  <si>
+    <t>simondepury</t>
+  </si>
+  <si>
+    <t>cohotelingcom</t>
+  </si>
+  <si>
+    <t>jo_rodgers</t>
+  </si>
+  <si>
+    <t>joao.bernardino</t>
+  </si>
+  <si>
+    <t>explore_moments</t>
+  </si>
+  <si>
+    <t>gregt041</t>
+  </si>
+  <si>
+    <t>only.in.tennessee</t>
+  </si>
+  <si>
+    <t>vinazzor</t>
+  </si>
+  <si>
+    <t>maikosbuilt</t>
   </si>
 </sst>
 </file>
@@ -26548,10 +26995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9611"/>
+  <dimension ref="A1:A9791"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9207" workbookViewId="0">
-      <selection activeCell="G9219" sqref="G9219"/>
+    <sheetView tabSelected="1" topLeftCell="A9703" workbookViewId="0">
+      <selection activeCell="G9719" sqref="G9719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -74611,6 +75058,906 @@
         <v>8721</v>
       </c>
     </row>
+    <row r="9612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9612" t="s">
+        <v>8722</v>
+      </c>
+    </row>
+    <row r="9613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9613" t="s">
+        <v>8723</v>
+      </c>
+    </row>
+    <row r="9614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9614" t="s">
+        <v>8724</v>
+      </c>
+    </row>
+    <row r="9615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9615" t="s">
+        <v>8725</v>
+      </c>
+    </row>
+    <row r="9616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9616" t="s">
+        <v>8726</v>
+      </c>
+    </row>
+    <row r="9617" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9617" t="s">
+        <v>8727</v>
+      </c>
+    </row>
+    <row r="9618" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9618" t="s">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="9619" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9619" t="s">
+        <v>8728</v>
+      </c>
+    </row>
+    <row r="9620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9620" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="9621" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9621" t="s">
+        <v>8729</v>
+      </c>
+    </row>
+    <row r="9622" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9622" t="s">
+        <v>8730</v>
+      </c>
+    </row>
+    <row r="9623" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9623" t="s">
+        <v>8731</v>
+      </c>
+    </row>
+    <row r="9624" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9624" t="s">
+        <v>8732</v>
+      </c>
+    </row>
+    <row r="9625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9625" t="s">
+        <v>8733</v>
+      </c>
+    </row>
+    <row r="9626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9626" t="s">
+        <v>8734</v>
+      </c>
+    </row>
+    <row r="9627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9627" t="s">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="9628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9628" t="s">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="9629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9629" t="s">
+        <v>8737</v>
+      </c>
+    </row>
+    <row r="9630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9630" t="s">
+        <v>8738</v>
+      </c>
+    </row>
+    <row r="9631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9631" t="s">
+        <v>8665</v>
+      </c>
+    </row>
+    <row r="9632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9632" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="9633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9633" t="s">
+        <v>8739</v>
+      </c>
+    </row>
+    <row r="9634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9634" t="s">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="9635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9635" t="s">
+        <v>8741</v>
+      </c>
+    </row>
+    <row r="9636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9636" t="s">
+        <v>8594</v>
+      </c>
+    </row>
+    <row r="9637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9637" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="9638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9638" t="s">
+        <v>8742</v>
+      </c>
+    </row>
+    <row r="9639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9639" t="s">
+        <v>8743</v>
+      </c>
+    </row>
+    <row r="9640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9640" t="s">
+        <v>8633</v>
+      </c>
+    </row>
+    <row r="9641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9641" t="s">
+        <v>8744</v>
+      </c>
+    </row>
+    <row r="9642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9642" t="s">
+        <v>7765</v>
+      </c>
+    </row>
+    <row r="9643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9643" t="s">
+        <v>8745</v>
+      </c>
+    </row>
+    <row r="9644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9644" t="s">
+        <v>8746</v>
+      </c>
+    </row>
+    <row r="9645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9645" t="s">
+        <v>8747</v>
+      </c>
+    </row>
+    <row r="9646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9646" t="s">
+        <v>8748</v>
+      </c>
+    </row>
+    <row r="9647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9647" t="s">
+        <v>8749</v>
+      </c>
+    </row>
+    <row r="9648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9648" t="s">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="9649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9649" t="s">
+        <v>8751</v>
+      </c>
+    </row>
+    <row r="9650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9650" t="s">
+        <v>8752</v>
+      </c>
+    </row>
+    <row r="9651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9651" t="s">
+        <v>8753</v>
+      </c>
+    </row>
+    <row r="9652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9652" t="s">
+        <v>8413</v>
+      </c>
+    </row>
+    <row r="9653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9653" t="s">
+        <v>8754</v>
+      </c>
+    </row>
+    <row r="9654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9654" t="s">
+        <v>8755</v>
+      </c>
+    </row>
+    <row r="9655" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9655" t="s">
+        <v>8756</v>
+      </c>
+    </row>
+    <row r="9656" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9656" t="s">
+        <v>8757</v>
+      </c>
+    </row>
+    <row r="9657" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9657" t="s">
+        <v>8758</v>
+      </c>
+    </row>
+    <row r="9658" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9658" t="s">
+        <v>8586</v>
+      </c>
+    </row>
+    <row r="9659" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9659" t="s">
+        <v>8759</v>
+      </c>
+    </row>
+    <row r="9660" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9660" t="s">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="9661" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9661" t="s">
+        <v>8638</v>
+      </c>
+    </row>
+    <row r="9662" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9662" t="s">
+        <v>8761</v>
+      </c>
+    </row>
+    <row r="9663" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9663" t="s">
+        <v>8762</v>
+      </c>
+    </row>
+    <row r="9664" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9664" t="s">
+        <v>8763</v>
+      </c>
+    </row>
+    <row r="9665" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9665" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="9666" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9666" t="s">
+        <v>8630</v>
+      </c>
+    </row>
+    <row r="9667" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9667" t="s">
+        <v>8764</v>
+      </c>
+    </row>
+    <row r="9668" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9668" t="s">
+        <v>8765</v>
+      </c>
+    </row>
+    <row r="9669" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9669" t="s">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="9670" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9670" t="s">
+        <v>8766</v>
+      </c>
+    </row>
+    <row r="9671" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9671" t="s">
+        <v>8767</v>
+      </c>
+    </row>
+    <row r="9672" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9672" t="s">
+        <v>8768</v>
+      </c>
+    </row>
+    <row r="9673" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9673" t="s">
+        <v>8769</v>
+      </c>
+    </row>
+    <row r="9674" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9674" t="s">
+        <v>8770</v>
+      </c>
+    </row>
+    <row r="9675" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9675" t="s">
+        <v>8459</v>
+      </c>
+    </row>
+    <row r="9676" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9676" t="s">
+        <v>8771</v>
+      </c>
+    </row>
+    <row r="9677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9677" t="s">
+        <v>8772</v>
+      </c>
+    </row>
+    <row r="9678" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9678" t="s">
+        <v>8773</v>
+      </c>
+    </row>
+    <row r="9679" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9679" t="s">
+        <v>8774</v>
+      </c>
+    </row>
+    <row r="9680" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9680" t="s">
+        <v>8775</v>
+      </c>
+    </row>
+    <row r="9681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9681" t="s">
+        <v>8776</v>
+      </c>
+    </row>
+    <row r="9682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9682" t="s">
+        <v>8777</v>
+      </c>
+    </row>
+    <row r="9683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9683" t="s">
+        <v>8778</v>
+      </c>
+    </row>
+    <row r="9684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9684" t="s">
+        <v>8588</v>
+      </c>
+    </row>
+    <row r="9685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9685" t="s">
+        <v>8779</v>
+      </c>
+    </row>
+    <row r="9686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9686" t="s">
+        <v>8780</v>
+      </c>
+    </row>
+    <row r="9687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9687" t="s">
+        <v>8781</v>
+      </c>
+    </row>
+    <row r="9688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9688" t="s">
+        <v>8782</v>
+      </c>
+    </row>
+    <row r="9689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9689" t="s">
+        <v>8783</v>
+      </c>
+    </row>
+    <row r="9690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9690" t="s">
+        <v>8784</v>
+      </c>
+    </row>
+    <row r="9691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9691" t="s">
+        <v>8785</v>
+      </c>
+    </row>
+    <row r="9692" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9692" t="s">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="9693" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9693" t="s">
+        <v>8786</v>
+      </c>
+    </row>
+    <row r="9694" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9694" t="s">
+        <v>8787</v>
+      </c>
+    </row>
+    <row r="9695" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9695" t="s">
+        <v>8788</v>
+      </c>
+    </row>
+    <row r="9696" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9696" t="s">
+        <v>8789</v>
+      </c>
+    </row>
+    <row r="9697" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9697" t="s">
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="9698" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9698" t="s">
+        <v>8712</v>
+      </c>
+    </row>
+    <row r="9699" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9699" t="s">
+        <v>8472</v>
+      </c>
+    </row>
+    <row r="9700" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9700" t="s">
+        <v>8791</v>
+      </c>
+    </row>
+    <row r="9701" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9701" t="s">
+        <v>8627</v>
+      </c>
+    </row>
+    <row r="9702" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9702" t="s">
+        <v>8792</v>
+      </c>
+    </row>
+    <row r="9703" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9703" t="s">
+        <v>8793</v>
+      </c>
+    </row>
+    <row r="9704" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9704" t="s">
+        <v>8794</v>
+      </c>
+    </row>
+    <row r="9705" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9705" t="s">
+        <v>8795</v>
+      </c>
+    </row>
+    <row r="9706" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9706" t="s">
+        <v>8796</v>
+      </c>
+    </row>
+    <row r="9707" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9707" t="s">
+        <v>8797</v>
+      </c>
+    </row>
+    <row r="9708" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9708" t="s">
+        <v>7446</v>
+      </c>
+    </row>
+    <row r="9709" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9709" t="s">
+        <v>8798</v>
+      </c>
+    </row>
+    <row r="9710" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9710" t="s">
+        <v>8799</v>
+      </c>
+    </row>
+    <row r="9711" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9711" t="s">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="9712" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9712" t="s">
+        <v>8801</v>
+      </c>
+    </row>
+    <row r="9713" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9713" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="9714" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9714" t="s">
+        <v>8802</v>
+      </c>
+    </row>
+    <row r="9715" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9715" t="s">
+        <v>8803</v>
+      </c>
+    </row>
+    <row r="9716" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9716" t="s">
+        <v>8804</v>
+      </c>
+    </row>
+    <row r="9717" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9717" t="s">
+        <v>8805</v>
+      </c>
+    </row>
+    <row r="9718" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9718" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="9719" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9719" t="s">
+        <v>8806</v>
+      </c>
+    </row>
+    <row r="9720" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9720" t="s">
+        <v>8807</v>
+      </c>
+    </row>
+    <row r="9721" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9721" t="s">
+        <v>8808</v>
+      </c>
+    </row>
+    <row r="9722" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9722" t="s">
+        <v>6675</v>
+      </c>
+    </row>
+    <row r="9723" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9723" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="9724" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9724" t="s">
+        <v>8810</v>
+      </c>
+    </row>
+    <row r="9725" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9725" t="s">
+        <v>8811</v>
+      </c>
+    </row>
+    <row r="9726" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9726" t="s">
+        <v>8812</v>
+      </c>
+    </row>
+    <row r="9727" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9727" t="s">
+        <v>8813</v>
+      </c>
+    </row>
+    <row r="9728" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9728" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="9729" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9729" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="9730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9730" t="s">
+        <v>8815</v>
+      </c>
+    </row>
+    <row r="9731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9731" t="s">
+        <v>8816</v>
+      </c>
+    </row>
+    <row r="9732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9732" t="s">
+        <v>8817</v>
+      </c>
+    </row>
+    <row r="9733" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9733" t="s">
+        <v>8818</v>
+      </c>
+    </row>
+    <row r="9734" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9734" t="s">
+        <v>8819</v>
+      </c>
+    </row>
+    <row r="9735" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9735" t="s">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="9736" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9736" t="s">
+        <v>8666</v>
+      </c>
+    </row>
+    <row r="9737" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9737" t="s">
+        <v>8406</v>
+      </c>
+    </row>
+    <row r="9738" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9738" t="s">
+        <v>8821</v>
+      </c>
+    </row>
+    <row r="9739" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9739" t="s">
+        <v>8822</v>
+      </c>
+    </row>
+    <row r="9740" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9740" t="s">
+        <v>8823</v>
+      </c>
+    </row>
+    <row r="9741" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9741" t="s">
+        <v>8824</v>
+      </c>
+    </row>
+    <row r="9742" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9742" t="s">
+        <v>8825</v>
+      </c>
+    </row>
+    <row r="9743" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9743" t="s">
+        <v>8826</v>
+      </c>
+    </row>
+    <row r="9744" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9744" t="s">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="9745" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9745" t="s">
+        <v>8827</v>
+      </c>
+    </row>
+    <row r="9746" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9746" t="s">
+        <v>8828</v>
+      </c>
+    </row>
+    <row r="9747" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9747" t="s">
+        <v>8829</v>
+      </c>
+    </row>
+    <row r="9748" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9748" t="s">
+        <v>8830</v>
+      </c>
+    </row>
+    <row r="9749" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9749" t="s">
+        <v>8831</v>
+      </c>
+    </row>
+    <row r="9750" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9750" t="s">
+        <v>8832</v>
+      </c>
+    </row>
+    <row r="9751" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9751" t="s">
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="9752" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9752" t="s">
+        <v>8834</v>
+      </c>
+    </row>
+    <row r="9753" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9753" t="s">
+        <v>8835</v>
+      </c>
+    </row>
+    <row r="9754" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9754" t="s">
+        <v>8836</v>
+      </c>
+    </row>
+    <row r="9755" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9755" t="s">
+        <v>8837</v>
+      </c>
+    </row>
+    <row r="9756" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9756" t="s">
+        <v>8838</v>
+      </c>
+    </row>
+    <row r="9757" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9757" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="9758" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9758" t="s">
+        <v>8839</v>
+      </c>
+    </row>
+    <row r="9759" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9759" t="s">
+        <v>8840</v>
+      </c>
+    </row>
+    <row r="9760" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9760" t="s">
+        <v>8841</v>
+      </c>
+    </row>
+    <row r="9761" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9761" t="s">
+        <v>8842</v>
+      </c>
+    </row>
+    <row r="9762" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9762" t="s">
+        <v>8843</v>
+      </c>
+    </row>
+    <row r="9763" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9763" t="s">
+        <v>8844</v>
+      </c>
+    </row>
+    <row r="9764" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9764" t="s">
+        <v>8845</v>
+      </c>
+    </row>
+    <row r="9765" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9765" t="s">
+        <v>8846</v>
+      </c>
+    </row>
+    <row r="9766" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9766" t="s">
+        <v>8847</v>
+      </c>
+    </row>
+    <row r="9767" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9767" t="s">
+        <v>8848</v>
+      </c>
+    </row>
+    <row r="9768" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9768" t="s">
+        <v>8849</v>
+      </c>
+    </row>
+    <row r="9769" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9769" t="s">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="9770" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9770" t="s">
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="9771" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9771" t="s">
+        <v>8851</v>
+      </c>
+    </row>
+    <row r="9772" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9772" t="s">
+        <v>8852</v>
+      </c>
+    </row>
+    <row r="9773" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9773" t="s">
+        <v>8853</v>
+      </c>
+    </row>
+    <row r="9774" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9774" t="s">
+        <v>8854</v>
+      </c>
+    </row>
+    <row r="9775" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9775" t="s">
+        <v>8855</v>
+      </c>
+    </row>
+    <row r="9776" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9776" t="s">
+        <v>8856</v>
+      </c>
+    </row>
+    <row r="9777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9777" t="s">
+        <v>8857</v>
+      </c>
+    </row>
+    <row r="9778" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9778" t="s">
+        <v>8858</v>
+      </c>
+    </row>
+    <row r="9779" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9779" t="s">
+        <v>8859</v>
+      </c>
+    </row>
+    <row r="9780" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9780" t="s">
+        <v>8860</v>
+      </c>
+    </row>
+    <row r="9781" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9781" t="s">
+        <v>8861</v>
+      </c>
+    </row>
+    <row r="9782" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9782" t="s">
+        <v>8862</v>
+      </c>
+    </row>
+    <row r="9783" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9783" t="s">
+        <v>8863</v>
+      </c>
+    </row>
+    <row r="9784" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9784" t="s">
+        <v>8864</v>
+      </c>
+    </row>
+    <row r="9785" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9785" t="s">
+        <v>8655</v>
+      </c>
+    </row>
+    <row r="9786" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9786" t="s">
+        <v>8865</v>
+      </c>
+    </row>
+    <row r="9787" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9787" t="s">
+        <v>8866</v>
+      </c>
+    </row>
+    <row r="9788" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9788" t="s">
+        <v>8867</v>
+      </c>
+    </row>
+    <row r="9789" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9789" t="s">
+        <v>8868</v>
+      </c>
+    </row>
+    <row r="9790" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9790" t="s">
+        <v>8869</v>
+      </c>
+    </row>
+    <row r="9791" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9791" t="s">
+        <v>8870</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/usernames_database_original.xlsx
+++ b/usernames_database_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujal Karmakar\Desktop\Desktop\Data Analyst\Instagram Data Scrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29C177B-1EE4-40D7-98F1-5DA2E2B0D93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42A9E42-D611-4F1E-A7B8-1AD3002BBE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9791" uniqueCount="8871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10900" uniqueCount="9550">
   <si>
     <t>Username</t>
   </si>
@@ -26633,6 +26633,2043 @@
   </si>
   <si>
     <t>maikosbuilt</t>
+  </si>
+  <si>
+    <t>mattcrump</t>
+  </si>
+  <si>
+    <t>artof_pictures</t>
+  </si>
+  <si>
+    <t>james_libang13</t>
+  </si>
+  <si>
+    <t>hugeplateofsauce</t>
+  </si>
+  <si>
+    <t>nextpgtrivia</t>
+  </si>
+  <si>
+    <t>animal_life_news</t>
+  </si>
+  <si>
+    <t>anirudh__vr</t>
+  </si>
+  <si>
+    <t>storychaplin</t>
+  </si>
+  <si>
+    <t>filmy.spot__</t>
+  </si>
+  <si>
+    <t>jumpingplane_boomdaily</t>
+  </si>
+  <si>
+    <t>dev_kashyap1133</t>
+  </si>
+  <si>
+    <t>stellarx56</t>
+  </si>
+  <si>
+    <t>rela_tablecore</t>
+  </si>
+  <si>
+    <t>today_finance_</t>
+  </si>
+  <si>
+    <t>alice.de.ze</t>
+  </si>
+  <si>
+    <t>prettymuchfinance</t>
+  </si>
+  <si>
+    <t>memesemusa1</t>
+  </si>
+  <si>
+    <t>itssspritam</t>
+  </si>
+  <si>
+    <t>iam_valeed</t>
+  </si>
+  <si>
+    <t>ironsanctuary</t>
+  </si>
+  <si>
+    <t>lgbb.c.w</t>
+  </si>
+  <si>
+    <t>jonnnykanone</t>
+  </si>
+  <si>
+    <t>fu.money.mindset</t>
+  </si>
+  <si>
+    <t>vivekonpoint</t>
+  </si>
+  <si>
+    <t>funniestmemeshub</t>
+  </si>
+  <si>
+    <t>kotastudentslife</t>
+  </si>
+  <si>
+    <t>leoza_life</t>
+  </si>
+  <si>
+    <t>triggeredinsaan</t>
+  </si>
+  <si>
+    <t>spiktec_</t>
+  </si>
+  <si>
+    <t>tashi.yt</t>
+  </si>
+  <si>
+    <t>shelby_world11</t>
+  </si>
+  <si>
+    <t>ky_collective</t>
+  </si>
+  <si>
+    <t>edvandromachado_</t>
+  </si>
+  <si>
+    <t>prakharguptaxprience</t>
+  </si>
+  <si>
+    <t>starr.mind</t>
+  </si>
+  <si>
+    <t>bkrak.ly</t>
+  </si>
+  <si>
+    <t>showerthoughts67</t>
+  </si>
+  <si>
+    <t>kas_animation2.0</t>
+  </si>
+  <si>
+    <t>im_realnickhil</t>
+  </si>
+  <si>
+    <t>activationcoach</t>
+  </si>
+  <si>
+    <t>originalmemerr</t>
+  </si>
+  <si>
+    <t>life.aur.sukoon</t>
+  </si>
+  <si>
+    <t>sumitkumawatt06</t>
+  </si>
+  <si>
+    <t>pahadiinfluenza</t>
+  </si>
+  <si>
+    <t>life_with_sy</t>
+  </si>
+  <si>
+    <t>joyyboie</t>
+  </si>
+  <si>
+    <t>funcho</t>
+  </si>
+  <si>
+    <t>car_additor_</t>
+  </si>
+  <si>
+    <t>itsmominaayub</t>
+  </si>
+  <si>
+    <t>ari.anox</t>
+  </si>
+  <si>
+    <t>the_nordic_god</t>
+  </si>
+  <si>
+    <t>keerthi</t>
+  </si>
+  <si>
+    <t>philosophically_ill</t>
+  </si>
+  <si>
+    <t>_sonali_sutar_</t>
+  </si>
+  <si>
+    <t>d_starrr_</t>
+  </si>
+  <si>
+    <t>jakemiller</t>
+  </si>
+  <si>
+    <t>2the_____soul___</t>
+  </si>
+  <si>
+    <t>supersumit_</t>
+  </si>
+  <si>
+    <t>sivagopi_pelluri</t>
+  </si>
+  <si>
+    <t>legend_nikkii</t>
+  </si>
+  <si>
+    <t>_mrovs</t>
+  </si>
+  <si>
+    <t>somduttcharan</t>
+  </si>
+  <si>
+    <t>covertrails</t>
+  </si>
+  <si>
+    <t>somelinesssssss</t>
+  </si>
+  <si>
+    <t>prekshachand</t>
+  </si>
+  <si>
+    <t>superheroes.and.stuff</t>
+  </si>
+  <si>
+    <t>bhaveshhhhh</t>
+  </si>
+  <si>
+    <t>globalcasm</t>
+  </si>
+  <si>
+    <t>_black_cityy_04</t>
+  </si>
+  <si>
+    <t>leenaderm</t>
+  </si>
+  <si>
+    <t>showksyu</t>
+  </si>
+  <si>
+    <t>my_povgaming</t>
+  </si>
+  <si>
+    <t>quietpepe</t>
+  </si>
+  <si>
+    <t>the.instapen</t>
+  </si>
+  <si>
+    <t>cherie_p_magar</t>
+  </si>
+  <si>
+    <t>anshuisheree</t>
+  </si>
+  <si>
+    <t>jia_jia_1125</t>
+  </si>
+  <si>
+    <t>couple4infiny</t>
+  </si>
+  <si>
+    <t>meenal.joshii</t>
+  </si>
+  <si>
+    <t>kallua_memer</t>
+  </si>
+  <si>
+    <t>zikkydubs</t>
+  </si>
+  <si>
+    <t>hemanttrajput__</t>
+  </si>
+  <si>
+    <t>tanmaaysiingh</t>
+  </si>
+  <si>
+    <t>vanshikalifts</t>
+  </si>
+  <si>
+    <t>elite_memer1</t>
+  </si>
+  <si>
+    <t>sahil_ftbl</t>
+  </si>
+  <si>
+    <t>optionsswing</t>
+  </si>
+  <si>
+    <t>think_like_raj</t>
+  </si>
+  <si>
+    <t>mindwithmuscle_</t>
+  </si>
+  <si>
+    <t>_superbakchod_</t>
+  </si>
+  <si>
+    <t>chef_yaseen</t>
+  </si>
+  <si>
+    <t>_cosmic_waves</t>
+  </si>
+  <si>
+    <t>wordsbysam._</t>
+  </si>
+  <si>
+    <t>devuuu_u_</t>
+  </si>
+  <si>
+    <t>thedevpareek</t>
+  </si>
+  <si>
+    <t>slctd.li</t>
+  </si>
+  <si>
+    <t>meme___baji</t>
+  </si>
+  <si>
+    <t>nishantdeep007</t>
+  </si>
+  <si>
+    <t>mikalisiousss6</t>
+  </si>
+  <si>
+    <t>mysticriderprateek</t>
+  </si>
+  <si>
+    <t>pranchosays</t>
+  </si>
+  <si>
+    <t>shiv_kp_</t>
+  </si>
+  <si>
+    <t>leoxiangchuan</t>
+  </si>
+  <si>
+    <t>digitalmemer7</t>
+  </si>
+  <si>
+    <t>tinku_ka_adda</t>
+  </si>
+  <si>
+    <t>yashilrajonline</t>
+  </si>
+  <si>
+    <t>nishutiwariclipss</t>
+  </si>
+  <si>
+    <t>lyrical.memories</t>
+  </si>
+  <si>
+    <t>advocate_samir_khan</t>
+  </si>
+  <si>
+    <t>im_yuvii013</t>
+  </si>
+  <si>
+    <t>pilot_with_helmet</t>
+  </si>
+  <si>
+    <t>one_more_see</t>
+  </si>
+  <si>
+    <t>diablo_unholy</t>
+  </si>
+  <si>
+    <t>flakeboyeditz</t>
+  </si>
+  <si>
+    <t>thebhai_ki_memes</t>
+  </si>
+  <si>
+    <t>hindustanihumour</t>
+  </si>
+  <si>
+    <t>just_mekarma</t>
+  </si>
+  <si>
+    <t>textovertguy</t>
+  </si>
+  <si>
+    <t>dazzling_vitality</t>
+  </si>
+  <si>
+    <t>bentellect</t>
+  </si>
+  <si>
+    <t>tigdambaaz3</t>
+  </si>
+  <si>
+    <t>oye_sach</t>
+  </si>
+  <si>
+    <t>immunewolf</t>
+  </si>
+  <si>
+    <t>abhishootsstuff</t>
+  </si>
+  <si>
+    <t>priyankaneelam_</t>
+  </si>
+  <si>
+    <t>alfiegetshard</t>
+  </si>
+  <si>
+    <t>arnaldomangini</t>
+  </si>
+  <si>
+    <t>simplyshabd</t>
+  </si>
+  <si>
+    <t>apoorvajadaun</t>
+  </si>
+  <si>
+    <t>rashi_lunia</t>
+  </si>
+  <si>
+    <t>anuj_._.__</t>
+  </si>
+  <si>
+    <t>tci_theclassyissue</t>
+  </si>
+  <si>
+    <t>jushtikaji</t>
+  </si>
+  <si>
+    <t>suzana_pakhrin</t>
+  </si>
+  <si>
+    <t>_samu__22_</t>
+  </si>
+  <si>
+    <t>its.raadhaa</t>
+  </si>
+  <si>
+    <t>nainaswami_</t>
+  </si>
+  <si>
+    <t>dikulwedding</t>
+  </si>
+  <si>
+    <t>the_taklaboy</t>
+  </si>
+  <si>
+    <t>ashi_z11</t>
+  </si>
+  <si>
+    <t>priyanshu_extraa</t>
+  </si>
+  <si>
+    <t>karimov_5nd</t>
+  </si>
+  <si>
+    <t>nicolettecallie</t>
+  </si>
+  <si>
+    <t>yuripomo</t>
+  </si>
+  <si>
+    <t>harrisonniap</t>
+  </si>
+  <si>
+    <t>rinkeytamang900</t>
+  </si>
+  <si>
+    <t>memesbykapil_</t>
+  </si>
+  <si>
+    <t>soul_kari</t>
+  </si>
+  <si>
+    <t>harshvohra_</t>
+  </si>
+  <si>
+    <t>gunjanshouts</t>
+  </si>
+  <si>
+    <t>jay.bevs</t>
+  </si>
+  <si>
+    <t>dunklift1</t>
+  </si>
+  <si>
+    <t>aditya.thakare21</t>
+  </si>
+  <si>
+    <t>relatableframe</t>
+  </si>
+  <si>
+    <t>ashh_lifts_</t>
+  </si>
+  <si>
+    <t>the_booksmiths</t>
+  </si>
+  <si>
+    <t>lolians7</t>
+  </si>
+  <si>
+    <t>vickypatil__</t>
+  </si>
+  <si>
+    <t>oleki_vfx</t>
+  </si>
+  <si>
+    <t>briefchaat</t>
+  </si>
+  <si>
+    <t>0_anubhya_0</t>
+  </si>
+  <si>
+    <t>carewellington</t>
+  </si>
+  <si>
+    <t>rahulkainthh</t>
+  </si>
+  <si>
+    <t>anee__shaa__</t>
+  </si>
+  <si>
+    <t>janhv.i_05</t>
+  </si>
+  <si>
+    <t>shlok__52</t>
+  </si>
+  <si>
+    <t>failicyy</t>
+  </si>
+  <si>
+    <t>aorus_eu</t>
+  </si>
+  <si>
+    <t>__riseofsigma__</t>
+  </si>
+  <si>
+    <t>aashna_sharma</t>
+  </si>
+  <si>
+    <t>deep.jethwa.397</t>
+  </si>
+  <si>
+    <t>officialrajatchauhan</t>
+  </si>
+  <si>
+    <t>_tanishqasahni_</t>
+  </si>
+  <si>
+    <t>ruhisfoodmagic</t>
+  </si>
+  <si>
+    <t>wise_guy_mentality</t>
+  </si>
+  <si>
+    <t>hanzolifts_</t>
+  </si>
+  <si>
+    <t>farzi_aesthetic</t>
+  </si>
+  <si>
+    <t>siddhant.indiavlogs</t>
+  </si>
+  <si>
+    <t>himanikahumour</t>
+  </si>
+  <si>
+    <t>sorted_guy</t>
+  </si>
+  <si>
+    <t>shishirrjhaa</t>
+  </si>
+  <si>
+    <t>isaacbradshaw45</t>
+  </si>
+  <si>
+    <t>dr.rakshita_singh</t>
+  </si>
+  <si>
+    <t>sweat_arena_zone</t>
+  </si>
+  <si>
+    <t>pratikshakhedkar25</t>
+  </si>
+  <si>
+    <t>the.socialpoppers</t>
+  </si>
+  <si>
+    <t>goatedmemes.in</t>
+  </si>
+  <si>
+    <t>lord_amara</t>
+  </si>
+  <si>
+    <t>beyond_with_archan</t>
+  </si>
+  <si>
+    <t>aqsamanzoor._</t>
+  </si>
+  <si>
+    <t>heartify.brainn</t>
+  </si>
+  <si>
+    <t>guriibolte</t>
+  </si>
+  <si>
+    <t>opapacapim_dinho</t>
+  </si>
+  <si>
+    <t>hello.ym_ty</t>
+  </si>
+  <si>
+    <t>estoyiyra</t>
+  </si>
+  <si>
+    <t>jenuine_penguin</t>
+  </si>
+  <si>
+    <t>iiiimohit</t>
+  </si>
+  <si>
+    <t>alinjohhn</t>
+  </si>
+  <si>
+    <t>arhamchordiaa</t>
+  </si>
+  <si>
+    <t>unfiltered._.medico</t>
+  </si>
+  <si>
+    <t>akshay_jaware_official</t>
+  </si>
+  <si>
+    <t>srijanachhetryofficial</t>
+  </si>
+  <si>
+    <t>crxy_boys</t>
+  </si>
+  <si>
+    <t>ekaksharora1</t>
+  </si>
+  <si>
+    <t>thefilmybomb</t>
+  </si>
+  <si>
+    <t>ash_mogs_</t>
+  </si>
+  <si>
+    <t>sa9irul</t>
+  </si>
+  <si>
+    <t>shams_faraz</t>
+  </si>
+  <si>
+    <t>obxto.amv_18</t>
+  </si>
+  <si>
+    <t>thriveinit</t>
+  </si>
+  <si>
+    <t>ocastrin</t>
+  </si>
+  <si>
+    <t>riobajracharya</t>
+  </si>
+  <si>
+    <t>baatcheetwithyuvaa</t>
+  </si>
+  <si>
+    <t>ritikumarr_</t>
+  </si>
+  <si>
+    <t>gktrickindia</t>
+  </si>
+  <si>
+    <t>dev_extraa</t>
+  </si>
+  <si>
+    <t>harshporwal8</t>
+  </si>
+  <si>
+    <t>shristi_sanganeria</t>
+  </si>
+  <si>
+    <t>pillow_talks_242607</t>
+  </si>
+  <si>
+    <t>shrutivagrecha05</t>
+  </si>
+  <si>
+    <t>sakaredizzzzz</t>
+  </si>
+  <si>
+    <t>trading_set_4</t>
+  </si>
+  <si>
+    <t>om.gangan</t>
+  </si>
+  <si>
+    <t>slavefoundation</t>
+  </si>
+  <si>
+    <t>j8hs8</t>
+  </si>
+  <si>
+    <t>rushonbike</t>
+  </si>
+  <si>
+    <t>dotto.babuu</t>
+  </si>
+  <si>
+    <t>hearitout__</t>
+  </si>
+  <si>
+    <t>anwarkamrann</t>
+  </si>
+  <si>
+    <t>shaniayanofc</t>
+  </si>
+  <si>
+    <t>__amna.k.swati</t>
+  </si>
+  <si>
+    <t>tata.lifepages</t>
+  </si>
+  <si>
+    <t>david_possebam</t>
+  </si>
+  <si>
+    <t>chetansonimusic</t>
+  </si>
+  <si>
+    <t>shrinkhalxishq</t>
+  </si>
+  <si>
+    <t>browneyed_29</t>
+  </si>
+  <si>
+    <t>pk20719</t>
+  </si>
+  <si>
+    <t>omikememes</t>
+  </si>
+  <si>
+    <t>swaaaa.ssss</t>
+  </si>
+  <si>
+    <t>fitwithjabir</t>
+  </si>
+  <si>
+    <t>prahapocha</t>
+  </si>
+  <si>
+    <t>majestic_londa</t>
+  </si>
+  <si>
+    <t>jamwithraag</t>
+  </si>
+  <si>
+    <t>nucleicmemes</t>
+  </si>
+  <si>
+    <t>nammasugamcafeofficial</t>
+  </si>
+  <si>
+    <t>tichhii_sangh</t>
+  </si>
+  <si>
+    <t>aayushh._.here</t>
+  </si>
+  <si>
+    <t>apoetfromkashmir</t>
+  </si>
+  <si>
+    <t>neelesh._.tripathi</t>
+  </si>
+  <si>
+    <t>vishalrc__</t>
+  </si>
+  <si>
+    <t>filla_.nibbi</t>
+  </si>
+  <si>
+    <t>rektamo</t>
+  </si>
+  <si>
+    <t>munnalisa.ke.memes</t>
+  </si>
+  <si>
+    <t>cowphobia86</t>
+  </si>
+  <si>
+    <t>h_chahal19</t>
+  </si>
+  <si>
+    <t>eucarva7ho_sp</t>
+  </si>
+  <si>
+    <t>aishthetic._</t>
+  </si>
+  <si>
+    <t>kevin.zingkhai</t>
+  </si>
+  <si>
+    <t>cuartomediooo.b</t>
+  </si>
+  <si>
+    <t>vinewali</t>
+  </si>
+  <si>
+    <t>pavanbasve</t>
+  </si>
+  <si>
+    <t>yogesh_asansol</t>
+  </si>
+  <si>
+    <t>erkojun</t>
+  </si>
+  <si>
+    <t>food.airdrop</t>
+  </si>
+  <si>
+    <t>bhardwaj_rider</t>
+  </si>
+  <si>
+    <t>hum0ur_king</t>
+  </si>
+  <si>
+    <t>bhooresingh.badboy</t>
+  </si>
+  <si>
+    <t>creatornajeeb</t>
+  </si>
+  <si>
+    <t>anishbruh1_</t>
+  </si>
+  <si>
+    <t>marcelachauh</t>
+  </si>
+  <si>
+    <t>itz___ashuuu__x</t>
+  </si>
+  <si>
+    <t>artblessedsofunny</t>
+  </si>
+  <si>
+    <t>busyreadin__</t>
+  </si>
+  <si>
+    <t>iliyaprusikin</t>
+  </si>
+  <si>
+    <t>manhar_08</t>
+  </si>
+  <si>
+    <t>simandbay</t>
+  </si>
+  <si>
+    <t>any_way_joy</t>
+  </si>
+  <si>
+    <t>dr.destruction_</t>
+  </si>
+  <si>
+    <t>saurabhpandit.28</t>
+  </si>
+  <si>
+    <t>h.f_artist</t>
+  </si>
+  <si>
+    <t>innocentbristanders</t>
+  </si>
+  <si>
+    <t>mewadi_bhayo</t>
+  </si>
+  <si>
+    <t>thesamu_py</t>
+  </si>
+  <si>
+    <t>_sam_ahmed</t>
+  </si>
+  <si>
+    <t>sona___mary</t>
+  </si>
+  <si>
+    <t>rishiraj.shekhawat_</t>
+  </si>
+  <si>
+    <t>pagekennedy</t>
+  </si>
+  <si>
+    <t>balaclips01</t>
+  </si>
+  <si>
+    <t>professorisrarkhann</t>
+  </si>
+  <si>
+    <t>the_only_siddhant</t>
+  </si>
+  <si>
+    <t>insanesunil</t>
+  </si>
+  <si>
+    <t>indiansavagetexts</t>
+  </si>
+  <si>
+    <t>arian_ajamiii</t>
+  </si>
+  <si>
+    <t>empireconnects</t>
+  </si>
+  <si>
+    <t>space_tamnik</t>
+  </si>
+  <si>
+    <t>cartorque.ahmedabad</t>
+  </si>
+  <si>
+    <t>abyaaz.x</t>
+  </si>
+  <si>
+    <t>voldra</t>
+  </si>
+  <si>
+    <t>photoknack.in</t>
+  </si>
+  <si>
+    <t>itsthetinatinglish</t>
+  </si>
+  <si>
+    <t>its_disco_time_daily</t>
+  </si>
+  <si>
+    <t>l.o.r.d._kushal_jaat</t>
+  </si>
+  <si>
+    <t>gabbyfenimore</t>
+  </si>
+  <si>
+    <t>__her__romeo__</t>
+  </si>
+  <si>
+    <t>mevlutkaan1</t>
+  </si>
+  <si>
+    <t>thelifestylediaryy</t>
+  </si>
+  <si>
+    <t>wolf.0313</t>
+  </si>
+  <si>
+    <t>the_kota_life</t>
+  </si>
+  <si>
+    <t>dhrubajyoti_guitar</t>
+  </si>
+  <si>
+    <t>memechampak</t>
+  </si>
+  <si>
+    <t>penzorbhutia28</t>
+  </si>
+  <si>
+    <t>steelobscura</t>
+  </si>
+  <si>
+    <t>derordevilofficial</t>
+  </si>
+  <si>
+    <t>superconeri</t>
+  </si>
+  <si>
+    <t>vibes.editss5</t>
+  </si>
+  <si>
+    <t>shaddyman98</t>
+  </si>
+  <si>
+    <t>maqpro.ao</t>
+  </si>
+  <si>
+    <t>trendy_boy_.099</t>
+  </si>
+  <si>
+    <t>wasif_awan89</t>
+  </si>
+  <si>
+    <t>quick_headline</t>
+  </si>
+  <si>
+    <t>mayanktanwarking</t>
+  </si>
+  <si>
+    <t>speechjourney</t>
+  </si>
+  <si>
+    <t>ravi_minawa</t>
+  </si>
+  <si>
+    <t>frozen_bottle</t>
+  </si>
+  <si>
+    <t>pindi_kavya</t>
+  </si>
+  <si>
+    <t>chetan_monga03</t>
+  </si>
+  <si>
+    <t>badalshayrma</t>
+  </si>
+  <si>
+    <t>traveleriste</t>
+  </si>
+  <si>
+    <t>khabrikahinka</t>
+  </si>
+  <si>
+    <t>marketingmentor.in</t>
+  </si>
+  <si>
+    <t>mahdi313foto</t>
+  </si>
+  <si>
+    <t>kuesengs_tv</t>
+  </si>
+  <si>
+    <t>cov3nantay</t>
+  </si>
+  <si>
+    <t>infinitejunction</t>
+  </si>
+  <si>
+    <t>hriday_singer</t>
+  </si>
+  <si>
+    <t>anthass.ulla.memers_2.0</t>
+  </si>
+  <si>
+    <t>antoniosouzarf</t>
+  </si>
+  <si>
+    <t>_abhi.mane</t>
+  </si>
+  <si>
+    <t>kunallllthakur3442</t>
+  </si>
+  <si>
+    <t>farazflix</t>
+  </si>
+  <si>
+    <t>relate_with_ontor</t>
+  </si>
+  <si>
+    <t>espada.sw</t>
+  </si>
+  <si>
+    <t>its_alone_shubh_</t>
+  </si>
+  <si>
+    <t>bhukkhadblogs</t>
+  </si>
+  <si>
+    <t>_khatri_06</t>
+  </si>
+  <si>
+    <t>lakshayjaggi</t>
+  </si>
+  <si>
+    <t>sanskaari.yaar</t>
+  </si>
+  <si>
+    <t>kamal_barua_official</t>
+  </si>
+  <si>
+    <t>mariaaiellohair</t>
+  </si>
+  <si>
+    <t>pianist_nightingale</t>
+  </si>
+  <si>
+    <t>litreally_me</t>
+  </si>
+  <si>
+    <t>ronie_sunsetlover</t>
+  </si>
+  <si>
+    <t>jinxedbom</t>
+  </si>
+  <si>
+    <t>leo_bloody_sweet07</t>
+  </si>
+  <si>
+    <t>moritz.dim</t>
+  </si>
+  <si>
+    <t>moto_cafe28</t>
+  </si>
+  <si>
+    <t>thissomegasj</t>
+  </si>
+  <si>
+    <t>vansh_chauhan_39</t>
+  </si>
+  <si>
+    <t>j_universe07</t>
+  </si>
+  <si>
+    <t>wakeupdansin</t>
+  </si>
+  <si>
+    <t>thevixenscrew</t>
+  </si>
+  <si>
+    <t>jakorbie</t>
+  </si>
+  <si>
+    <t>zogumma</t>
+  </si>
+  <si>
+    <t>faya___________________</t>
+  </si>
+  <si>
+    <t>nishuuu_take1</t>
+  </si>
+  <si>
+    <t>mrcinephiler</t>
+  </si>
+  <si>
+    <t>inspired.author</t>
+  </si>
+  <si>
+    <t>prabhat.bhopal</t>
+  </si>
+  <si>
+    <t>pandey_sidhartha</t>
+  </si>
+  <si>
+    <t>ianboggz</t>
+  </si>
+  <si>
+    <t>boxernaghiyev</t>
+  </si>
+  <si>
+    <t>brandbuildingwith.ai</t>
+  </si>
+  <si>
+    <t>financialnerve</t>
+  </si>
+  <si>
+    <t>_deependra_singh_shekhawat</t>
+  </si>
+  <si>
+    <t>charan.pasumarti</t>
+  </si>
+  <si>
+    <t>updateindia.in</t>
+  </si>
+  <si>
+    <t>aasbukhari</t>
+  </si>
+  <si>
+    <t>blain.visuals</t>
+  </si>
+  <si>
+    <t>emilvergo</t>
+  </si>
+  <si>
+    <t>dani.shotss</t>
+  </si>
+  <si>
+    <t>apixelart</t>
+  </si>
+  <si>
+    <t>yourrandomvariable</t>
+  </si>
+  <si>
+    <t>avinahitohkabhi</t>
+  </si>
+  <si>
+    <t>indiainlast24hr</t>
+  </si>
+  <si>
+    <t>haram_eezz</t>
+  </si>
+  <si>
+    <t>doctorsango</t>
+  </si>
+  <si>
+    <t>parthbajaj</t>
+  </si>
+  <si>
+    <t>jaipur.unfiltered</t>
+  </si>
+  <si>
+    <t>ianuragbisht</t>
+  </si>
+  <si>
+    <t>riyavarma_13</t>
+  </si>
+  <si>
+    <t>beeshal_23</t>
+  </si>
+  <si>
+    <t>sushruth.manchikatla</t>
+  </si>
+  <si>
+    <t>prnvhegde</t>
+  </si>
+  <si>
+    <t>sarcastic_battubh4i</t>
+  </si>
+  <si>
+    <t>drewfromladue</t>
+  </si>
+  <si>
+    <t>alishamaria7</t>
+  </si>
+  <si>
+    <t>rankago23</t>
+  </si>
+  <si>
+    <t>shaayera_13</t>
+  </si>
+  <si>
+    <t>yb.jaya</t>
+  </si>
+  <si>
+    <t>hollys.hens</t>
+  </si>
+  <si>
+    <t>arron_crascall</t>
+  </si>
+  <si>
+    <t>slaykita</t>
+  </si>
+  <si>
+    <t>naddy_maddy07</t>
+  </si>
+  <si>
+    <t>happyy.crafts</t>
+  </si>
+  <si>
+    <t>apna.ganesh</t>
+  </si>
+  <si>
+    <t>prince_lion__og</t>
+  </si>
+  <si>
+    <t>wifi.college</t>
+  </si>
+  <si>
+    <t>tjr</t>
+  </si>
+  <si>
+    <t>soroush.ebraahimi</t>
+  </si>
+  <si>
+    <t>devbhatiaaaa</t>
+  </si>
+  <si>
+    <t>jio_hamare_sath</t>
+  </si>
+  <si>
+    <t>maaidahhh</t>
+  </si>
+  <si>
+    <t>explorewithaman</t>
+  </si>
+  <si>
+    <t>kvnghenry001</t>
+  </si>
+  <si>
+    <t>onwaveo</t>
+  </si>
+  <si>
+    <t>julius_ary</t>
+  </si>
+  <si>
+    <t>riapalkar</t>
+  </si>
+  <si>
+    <t>_guruvirdi</t>
+  </si>
+  <si>
+    <t>sidharth_thisside</t>
+  </si>
+  <si>
+    <t>ashutainment</t>
+  </si>
+  <si>
+    <t>ka12.production</t>
+  </si>
+  <si>
+    <t>bisudraws</t>
+  </si>
+  <si>
+    <t>prashanthz.in</t>
+  </si>
+  <si>
+    <t>clayjambor</t>
+  </si>
+  <si>
+    <t>neev_balani_</t>
+  </si>
+  <si>
+    <t>pranav_vlogs</t>
+  </si>
+  <si>
+    <t>dilsepaneer</t>
+  </si>
+  <si>
+    <t>confused.aatma</t>
+  </si>
+  <si>
+    <t>sabakhan._.11</t>
+  </si>
+  <si>
+    <t>5nourrmar</t>
+  </si>
+  <si>
+    <t>abhishek.aka.ashu</t>
+  </si>
+  <si>
+    <t>maheekulkarni</t>
+  </si>
+  <si>
+    <t>dejiwastaken</t>
+  </si>
+  <si>
+    <t>vittyvipul</t>
+  </si>
+  <si>
+    <t>chef_prateek_kitchen</t>
+  </si>
+  <si>
+    <t>yuvrajsinghbundela_</t>
+  </si>
+  <si>
+    <t>hvp.music</t>
+  </si>
+  <si>
+    <t>_memes_caffe</t>
+  </si>
+  <si>
+    <t>zakirkhan_208</t>
+  </si>
+  <si>
+    <t>reddoxstudio</t>
+  </si>
+  <si>
+    <t>yogankk.4m</t>
+  </si>
+  <si>
+    <t>_clipclop</t>
+  </si>
+  <si>
+    <t>sarcasmsunny</t>
+  </si>
+  <si>
+    <t>filmygags</t>
+  </si>
+  <si>
+    <t>salman_shaya_</t>
+  </si>
+  <si>
+    <t>gauravyadav_in</t>
+  </si>
+  <si>
+    <t>aamhimemekar</t>
+  </si>
+  <si>
+    <t>abhinavkishor108</t>
+  </si>
+  <si>
+    <t>mr__edit69</t>
+  </si>
+  <si>
+    <t>ravingdaddy</t>
+  </si>
+  <si>
+    <t>sochobolopao</t>
+  </si>
+  <si>
+    <t>dadlifejason</t>
+  </si>
+  <si>
+    <t>nimishh_sayss</t>
+  </si>
+  <si>
+    <t>thesciencebunker</t>
+  </si>
+  <si>
+    <t>sapna_aesthiexdas</t>
+  </si>
+  <si>
+    <t>listenwordsmith</t>
+  </si>
+  <si>
+    <t>rizit.1234</t>
+  </si>
+  <si>
+    <t>kneeyeah._</t>
+  </si>
+  <si>
+    <t>iamcaro_b</t>
+  </si>
+  <si>
+    <t>heavenlydelinquet</t>
+  </si>
+  <si>
+    <t>biswassinha</t>
+  </si>
+  <si>
+    <t>vinaytiwari_comic</t>
+  </si>
+  <si>
+    <t>ssstorysays</t>
+  </si>
+  <si>
+    <t>sabaesthetic._</t>
+  </si>
+  <si>
+    <t>omgxiaoqian</t>
+  </si>
+  <si>
+    <t>abhishek_waliaa</t>
+  </si>
+  <si>
+    <t>enoughnawaz</t>
+  </si>
+  <si>
+    <t>pragya_thedivinedancer</t>
+  </si>
+  <si>
+    <t>12pm_03am</t>
+  </si>
+  <si>
+    <t>naxx.moto</t>
+  </si>
+  <si>
+    <t>jgcruz3d</t>
+  </si>
+  <si>
+    <t>laique_masoom_surma_bhopali</t>
+  </si>
+  <si>
+    <t>igor_show07</t>
+  </si>
+  <si>
+    <t>zoya.wastaa_</t>
+  </si>
+  <si>
+    <t>sajjad_chotobhai</t>
+  </si>
+  <si>
+    <t>chelsyjaswal</t>
+  </si>
+  <si>
+    <t>sehenazinreal_</t>
+  </si>
+  <si>
+    <t>soulxsigh</t>
+  </si>
+  <si>
+    <t>the.new.herr</t>
+  </si>
+  <si>
+    <t>thepastelstoicism</t>
+  </si>
+  <si>
+    <t>mitha_officiall</t>
+  </si>
+  <si>
+    <t>iamsupertaran</t>
+  </si>
+  <si>
+    <t>mostiske_pochon_69</t>
+  </si>
+  <si>
+    <t>thatsleepdoc</t>
+  </si>
+  <si>
+    <t>nooruddin_badnagerwala</t>
+  </si>
+  <si>
+    <t>gigglemaster321</t>
+  </si>
+  <si>
+    <t>ayushh_515</t>
+  </si>
+  <si>
+    <t>vlogvasi</t>
+  </si>
+  <si>
+    <t>aayushikailash</t>
+  </si>
+  <si>
+    <t>meme.x.house</t>
+  </si>
+  <si>
+    <t>abhisheksaini1840</t>
+  </si>
+  <si>
+    <t>thisis_alaska_</t>
+  </si>
+  <si>
+    <t>bharat__music</t>
+  </si>
+  <si>
+    <t>ayssi.mnrv</t>
+  </si>
+  <si>
+    <t>arey.munna_</t>
+  </si>
+  <si>
+    <t>iqom2</t>
+  </si>
+  <si>
+    <t>ujjwalkvines</t>
+  </si>
+  <si>
+    <t>viewsof.lora._</t>
+  </si>
+  <si>
+    <t>ahmad.k.rabah</t>
+  </si>
+  <si>
+    <t>ayush_funnn</t>
+  </si>
+  <si>
+    <t>holistic.therapist.gayathri</t>
+  </si>
+  <si>
+    <t>i_am_dimitrii</t>
+  </si>
+  <si>
+    <t>kwatle__party</t>
+  </si>
+  <si>
+    <t>memes_explor</t>
+  </si>
+  <si>
+    <t>dushtpranii</t>
+  </si>
+  <si>
+    <t>pu.memee</t>
+  </si>
+  <si>
+    <t>shivang_chaudhary</t>
+  </si>
+  <si>
+    <t>swol_suzi</t>
+  </si>
+  <si>
+    <t>tx_editx7</t>
+  </si>
+  <si>
+    <t>yaxin_fit</t>
+  </si>
+  <si>
+    <t>witty.winkss</t>
+  </si>
+  <si>
+    <t>mbbs__master_at_breaking_bones</t>
+  </si>
+  <si>
+    <t>who_dm_edits</t>
+  </si>
+  <si>
+    <t>iamapoorv_</t>
+  </si>
+  <si>
+    <t>growithstephen</t>
+  </si>
+  <si>
+    <t>mk_shaikh_11</t>
+  </si>
+  <si>
+    <t>mensxpofficial</t>
+  </si>
+  <si>
+    <t>lines_snow_madrid</t>
+  </si>
+  <si>
+    <t>shockkinginternet</t>
+  </si>
+  <si>
+    <t>relatableprime</t>
+  </si>
+  <si>
+    <t>amongcko</t>
+  </si>
+  <si>
+    <t>2025_saving_page</t>
+  </si>
+  <si>
+    <t>sanjeevkapoor</t>
+  </si>
+  <si>
+    <t>ashishsolanki_1</t>
+  </si>
+  <si>
+    <t>bookishcoffeelover</t>
+  </si>
+  <si>
+    <t>eduparity</t>
+  </si>
+  <si>
+    <t>kadennehring</t>
+  </si>
+  <si>
+    <t>breezy_.77</t>
+  </si>
+  <si>
+    <t>leratosekoai_9</t>
+  </si>
+  <si>
+    <t>_cherrycosmoss.__</t>
+  </si>
+  <si>
+    <t>drafts.nasha</t>
+  </si>
+  <si>
+    <t>sp.humorless</t>
+  </si>
+  <si>
+    <t>sarcaaster</t>
+  </si>
+  <si>
+    <t>bunnyboy00_</t>
+  </si>
+  <si>
+    <t>rizz_lingz</t>
+  </si>
+  <si>
+    <t>muradd5000</t>
+  </si>
+  <si>
+    <t>chris_nastev</t>
+  </si>
+  <si>
+    <t>agastya_thought</t>
+  </si>
+  <si>
+    <t>itss_me_raji</t>
+  </si>
+  <si>
+    <t>ruchiipatel_</t>
+  </si>
+  <si>
+    <t>_diishita_</t>
+  </si>
+  <si>
+    <t>on_shubham</t>
+  </si>
+  <si>
+    <t>glebxy</t>
+  </si>
+  <si>
+    <t>memescentral_2.0</t>
+  </si>
+  <si>
+    <t>pedhodu__</t>
+  </si>
+  <si>
+    <t>heisencraft</t>
+  </si>
+  <si>
+    <t>vedantsharma3_</t>
+  </si>
+  <si>
+    <t>roshanehru</t>
+  </si>
+  <si>
+    <t>dodonlulu</t>
+  </si>
+  <si>
+    <t>relatable_hub33</t>
+  </si>
+  <si>
+    <t>goalfor_ego</t>
+  </si>
+  <si>
+    <t>atells_tales</t>
+  </si>
+  <si>
+    <t>thefbinegotiator</t>
+  </si>
+  <si>
+    <t>learning.ant</t>
+  </si>
+  <si>
+    <t>aarshsharmxa</t>
+  </si>
+  <si>
+    <t>relatedmemes____</t>
+  </si>
+  <si>
+    <t>am_akhil_</t>
+  </si>
+  <si>
+    <t>animecosmox2</t>
+  </si>
+  <si>
+    <t>13.bhai</t>
+  </si>
+  <si>
+    <t>low_budget_hopecore</t>
+  </si>
+  <si>
+    <t>bossbitch.10</t>
+  </si>
+  <si>
+    <t>yourmeme.ss</t>
+  </si>
+  <si>
+    <t>pixelhumourdude</t>
+  </si>
+  <si>
+    <t>sudhapusa_</t>
+  </si>
+  <si>
+    <t>parthhhh._.05</t>
+  </si>
+  <si>
+    <t>cheems_rants</t>
+  </si>
+  <si>
+    <t>techdroider</t>
+  </si>
+  <si>
+    <t>animatorkay</t>
+  </si>
+  <si>
+    <t>success.mindset.97</t>
+  </si>
+  <si>
+    <t>vyangindia</t>
+  </si>
+  <si>
+    <t>b_w_laws</t>
+  </si>
+  <si>
+    <t>vloggervipul</t>
+  </si>
+  <si>
+    <t>few.morepages</t>
+  </si>
+  <si>
+    <t>gigijarvis</t>
+  </si>
+  <si>
+    <t>boqiyev.edit</t>
+  </si>
+  <si>
+    <t>vashamarousia</t>
+  </si>
+  <si>
+    <t>haharshdere</t>
+  </si>
+  <si>
+    <t>mario.waffles</t>
+  </si>
+  <si>
+    <t>the_funn_stuff</t>
+  </si>
+  <si>
+    <t>fairystailing</t>
+  </si>
+  <si>
+    <t>hugmeimfamous</t>
+  </si>
+  <si>
+    <t>aleks2real</t>
+  </si>
+  <si>
+    <t>complicated_aric</t>
+  </si>
+  <si>
+    <t>nareshow</t>
+  </si>
+  <si>
+    <t>mixr1de</t>
+  </si>
+  <si>
+    <t>timesofindia</t>
+  </si>
+  <si>
+    <t>tanvi.bakshii</t>
+  </si>
+  <si>
+    <t>soniachaudhry_06</t>
+  </si>
+  <si>
+    <t>austin_dwight</t>
+  </si>
+  <si>
+    <t>hescooks</t>
+  </si>
+  <si>
+    <t>geicha.cz</t>
+  </si>
+  <si>
+    <t>g_aish_</t>
+  </si>
+  <si>
+    <t>machines.hyd</t>
+  </si>
+  <si>
+    <t>project.ubu</t>
+  </si>
+  <si>
+    <t>bbsdoingnothing</t>
+  </si>
+  <si>
+    <t>coldwar.io</t>
+  </si>
+  <si>
+    <t>froesmari</t>
+  </si>
+  <si>
+    <t>trendingwhy</t>
+  </si>
+  <si>
+    <t>realestinsane</t>
+  </si>
+  <si>
+    <t>livelimitlessvlogs</t>
+  </si>
+  <si>
+    <t>david_meessen</t>
+  </si>
+  <si>
+    <t>rider.rohan07</t>
+  </si>
+  <si>
+    <t>chemist_daily_</t>
+  </si>
+  <si>
+    <t>i.khushi</t>
+  </si>
+  <si>
+    <t>startupro_</t>
+  </si>
+  <si>
+    <t>foodparadise.in</t>
+  </si>
+  <si>
+    <t>fullyline</t>
+  </si>
+  <si>
+    <t>male.discipline</t>
+  </si>
+  <si>
+    <t>saitamarussian</t>
+  </si>
+  <si>
+    <t>parijat_pen</t>
+  </si>
+  <si>
+    <t>andrewpavv</t>
+  </si>
+  <si>
+    <t>theknightuniversity</t>
+  </si>
+  <si>
+    <t>bssworldwide</t>
+  </si>
+  <si>
+    <t>onroadindian</t>
+  </si>
+  <si>
+    <t>jonas</t>
+  </si>
+  <si>
+    <t>relatable2guy</t>
+  </si>
+  <si>
+    <t>8ball</t>
+  </si>
+  <si>
+    <t>the_poe8</t>
+  </si>
+  <si>
+    <t>_krlo_editz</t>
+  </si>
+  <si>
+    <t>ig_suball</t>
+  </si>
+  <si>
+    <t>babeeskin____</t>
+  </si>
+  <si>
+    <t>gauravalbert.__</t>
+  </si>
+  <si>
+    <t>nedamobarakati</t>
+  </si>
+  <si>
+    <t>abhishek.prajapati.21</t>
+  </si>
+  <si>
+    <t>theguywiththehelmett</t>
+  </si>
+  <si>
+    <t>dailydetermination_</t>
+  </si>
+  <si>
+    <t>boyonglobe</t>
+  </si>
+  <si>
+    <t>soul_maate_092</t>
+  </si>
+  <si>
+    <t>imjakoozy</t>
+  </si>
+  <si>
+    <t>tylervisciano</t>
+  </si>
+  <si>
+    <t>harshmusicz</t>
+  </si>
+  <si>
+    <t>xcj.jr_</t>
+  </si>
+  <si>
+    <t>ineffable.kanya</t>
+  </si>
+  <si>
+    <t>nathanjhaight</t>
+  </si>
+  <si>
+    <t>prathamsonii9</t>
+  </si>
+  <si>
+    <t>prasad.patil007</t>
+  </si>
+  <si>
+    <t>allam_bellam_memes</t>
+  </si>
+  <si>
+    <t>esthetic.guy</t>
+  </si>
+  <si>
+    <t>vishal_sonkar_official</t>
+  </si>
+  <si>
+    <t>kyabaathai199</t>
+  </si>
+  <si>
+    <t>_.real.world</t>
+  </si>
+  <si>
+    <t>thakurshubhamsingh_</t>
+  </si>
+  <si>
+    <t>sunnyliachoi</t>
+  </si>
+  <si>
+    <t>sarthakkkbt</t>
+  </si>
+  <si>
+    <t>saraandmaher</t>
+  </si>
+  <si>
+    <t>click.himanshu</t>
+  </si>
+  <si>
+    <t>katochhh_0</t>
+  </si>
+  <si>
+    <t>boodleboyz</t>
+  </si>
+  <si>
+    <t>pwneetwallah_</t>
+  </si>
+  <si>
+    <t>wavymattlol</t>
+  </si>
+  <si>
+    <t>_project_11_11_</t>
+  </si>
+  <si>
+    <t>grimbro.o1</t>
+  </si>
+  <si>
+    <t>desde_la_ciencia</t>
+  </si>
+  <si>
+    <t>ameana_finds</t>
+  </si>
+  <si>
+    <t>aman.cyd</t>
+  </si>
+  <si>
+    <t>itz_deepak773</t>
+  </si>
+  <si>
+    <t>senpairides</t>
+  </si>
+  <si>
+    <t>aleksiss5</t>
+  </si>
+  <si>
+    <t>sup1nator</t>
+  </si>
+  <si>
+    <t>love.leaflets</t>
+  </si>
+  <si>
+    <t>positivefitnessstudio</t>
+  </si>
+  <si>
+    <t>marketingmaverick.in</t>
+  </si>
+  <si>
+    <t>sheinspiresstrength</t>
+  </si>
+  <si>
+    <t>m3dha.n</t>
+  </si>
+  <si>
+    <t>justchilladib</t>
+  </si>
+  <si>
+    <t>sarahaugenphotography</t>
+  </si>
+  <si>
+    <t>gentlemenprivateclub</t>
+  </si>
+  <si>
+    <t>koyamaginjiro</t>
+  </si>
+  <si>
+    <t>cameasty</t>
+  </si>
+  <si>
+    <t>reputapro</t>
+  </si>
+  <si>
+    <t>cori.story</t>
+  </si>
+  <si>
+    <t>memeintox</t>
+  </si>
+  <si>
+    <t>ajktravellogs</t>
+  </si>
+  <si>
+    <t>ritikfits</t>
+  </si>
+  <si>
+    <t>syuzo_film</t>
+  </si>
+  <si>
+    <t>sarduckkkk</t>
+  </si>
+  <si>
+    <t>kmatzfd3s</t>
+  </si>
+  <si>
+    <t>wisdomofhidgon</t>
+  </si>
+  <si>
+    <t>preesuccesss</t>
   </si>
 </sst>
 </file>
@@ -26995,10 +29032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9791"/>
+  <dimension ref="A1:A10900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9703" workbookViewId="0">
-      <selection activeCell="G9719" sqref="G9719"/>
+    <sheetView tabSelected="1" topLeftCell="A10060" workbookViewId="0">
+      <selection activeCell="F10069" sqref="F10069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -75958,6 +77995,5551 @@
         <v>8870</v>
       </c>
     </row>
+    <row r="9792" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9792" t="s">
+        <v>8722</v>
+      </c>
+    </row>
+    <row r="9793" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9793" t="s">
+        <v>8723</v>
+      </c>
+    </row>
+    <row r="9794" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9794" t="s">
+        <v>8724</v>
+      </c>
+    </row>
+    <row r="9795" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9795" t="s">
+        <v>8725</v>
+      </c>
+    </row>
+    <row r="9796" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9796" t="s">
+        <v>8726</v>
+      </c>
+    </row>
+    <row r="9797" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9797" t="s">
+        <v>8727</v>
+      </c>
+    </row>
+    <row r="9798" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9798" t="s">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="9799" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9799" t="s">
+        <v>8728</v>
+      </c>
+    </row>
+    <row r="9800" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9800" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="9801" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9801" t="s">
+        <v>8729</v>
+      </c>
+    </row>
+    <row r="9802" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9802" t="s">
+        <v>8730</v>
+      </c>
+    </row>
+    <row r="9803" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9803" t="s">
+        <v>8731</v>
+      </c>
+    </row>
+    <row r="9804" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9804" t="s">
+        <v>8732</v>
+      </c>
+    </row>
+    <row r="9805" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9805" t="s">
+        <v>8733</v>
+      </c>
+    </row>
+    <row r="9806" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9806" t="s">
+        <v>8734</v>
+      </c>
+    </row>
+    <row r="9807" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9807" t="s">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="9808" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9808" t="s">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="9809" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9809" t="s">
+        <v>8737</v>
+      </c>
+    </row>
+    <row r="9810" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9810" t="s">
+        <v>8738</v>
+      </c>
+    </row>
+    <row r="9811" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9811" t="s">
+        <v>8665</v>
+      </c>
+    </row>
+    <row r="9812" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9812" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="9813" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9813" t="s">
+        <v>8739</v>
+      </c>
+    </row>
+    <row r="9814" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9814" t="s">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="9815" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9815" t="s">
+        <v>8741</v>
+      </c>
+    </row>
+    <row r="9816" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9816" t="s">
+        <v>8594</v>
+      </c>
+    </row>
+    <row r="9817" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9817" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="9818" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9818" t="s">
+        <v>8742</v>
+      </c>
+    </row>
+    <row r="9819" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9819" t="s">
+        <v>8743</v>
+      </c>
+    </row>
+    <row r="9820" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9820" t="s">
+        <v>8633</v>
+      </c>
+    </row>
+    <row r="9821" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9821" t="s">
+        <v>8744</v>
+      </c>
+    </row>
+    <row r="9822" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9822" t="s">
+        <v>7765</v>
+      </c>
+    </row>
+    <row r="9823" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9823" t="s">
+        <v>8745</v>
+      </c>
+    </row>
+    <row r="9824" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9824" t="s">
+        <v>8746</v>
+      </c>
+    </row>
+    <row r="9825" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9825" t="s">
+        <v>8747</v>
+      </c>
+    </row>
+    <row r="9826" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9826" t="s">
+        <v>8748</v>
+      </c>
+    </row>
+    <row r="9827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9827" t="s">
+        <v>8749</v>
+      </c>
+    </row>
+    <row r="9828" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9828" t="s">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="9829" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9829" t="s">
+        <v>8751</v>
+      </c>
+    </row>
+    <row r="9830" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9830" t="s">
+        <v>8752</v>
+      </c>
+    </row>
+    <row r="9831" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9831" t="s">
+        <v>8753</v>
+      </c>
+    </row>
+    <row r="9832" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9832" t="s">
+        <v>8413</v>
+      </c>
+    </row>
+    <row r="9833" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9833" t="s">
+        <v>8754</v>
+      </c>
+    </row>
+    <row r="9834" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9834" t="s">
+        <v>8755</v>
+      </c>
+    </row>
+    <row r="9835" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9835" t="s">
+        <v>8756</v>
+      </c>
+    </row>
+    <row r="9836" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9836" t="s">
+        <v>8757</v>
+      </c>
+    </row>
+    <row r="9837" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9837" t="s">
+        <v>8758</v>
+      </c>
+    </row>
+    <row r="9838" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9838" t="s">
+        <v>8586</v>
+      </c>
+    </row>
+    <row r="9839" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9839" t="s">
+        <v>8759</v>
+      </c>
+    </row>
+    <row r="9840" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9840" t="s">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="9841" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9841" t="s">
+        <v>8638</v>
+      </c>
+    </row>
+    <row r="9842" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9842" t="s">
+        <v>8761</v>
+      </c>
+    </row>
+    <row r="9843" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9843" t="s">
+        <v>8762</v>
+      </c>
+    </row>
+    <row r="9844" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9844" t="s">
+        <v>8763</v>
+      </c>
+    </row>
+    <row r="9845" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9845" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="9846" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9846" t="s">
+        <v>8630</v>
+      </c>
+    </row>
+    <row r="9847" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9847" t="s">
+        <v>8764</v>
+      </c>
+    </row>
+    <row r="9848" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9848" t="s">
+        <v>8765</v>
+      </c>
+    </row>
+    <row r="9849" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9849" t="s">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="9850" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9850" t="s">
+        <v>8766</v>
+      </c>
+    </row>
+    <row r="9851" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9851" t="s">
+        <v>8767</v>
+      </c>
+    </row>
+    <row r="9852" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9852" t="s">
+        <v>8768</v>
+      </c>
+    </row>
+    <row r="9853" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9853" t="s">
+        <v>8769</v>
+      </c>
+    </row>
+    <row r="9854" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9854" t="s">
+        <v>8770</v>
+      </c>
+    </row>
+    <row r="9855" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9855" t="s">
+        <v>8459</v>
+      </c>
+    </row>
+    <row r="9856" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9856" t="s">
+        <v>8771</v>
+      </c>
+    </row>
+    <row r="9857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9857" t="s">
+        <v>8772</v>
+      </c>
+    </row>
+    <row r="9858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9858" t="s">
+        <v>8773</v>
+      </c>
+    </row>
+    <row r="9859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9859" t="s">
+        <v>8774</v>
+      </c>
+    </row>
+    <row r="9860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9860" t="s">
+        <v>8775</v>
+      </c>
+    </row>
+    <row r="9861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9861" t="s">
+        <v>8776</v>
+      </c>
+    </row>
+    <row r="9862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9862" t="s">
+        <v>8777</v>
+      </c>
+    </row>
+    <row r="9863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9863" t="s">
+        <v>8778</v>
+      </c>
+    </row>
+    <row r="9864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9864" t="s">
+        <v>8588</v>
+      </c>
+    </row>
+    <row r="9865" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9865" t="s">
+        <v>8779</v>
+      </c>
+    </row>
+    <row r="9866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9866" t="s">
+        <v>8780</v>
+      </c>
+    </row>
+    <row r="9867" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9867" t="s">
+        <v>8781</v>
+      </c>
+    </row>
+    <row r="9868" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9868" t="s">
+        <v>8782</v>
+      </c>
+    </row>
+    <row r="9869" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9869" t="s">
+        <v>8783</v>
+      </c>
+    </row>
+    <row r="9870" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9870" t="s">
+        <v>8784</v>
+      </c>
+    </row>
+    <row r="9871" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9871" t="s">
+        <v>8785</v>
+      </c>
+    </row>
+    <row r="9872" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9872" t="s">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="9873" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9873" t="s">
+        <v>8786</v>
+      </c>
+    </row>
+    <row r="9874" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9874" t="s">
+        <v>8787</v>
+      </c>
+    </row>
+    <row r="9875" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9875" t="s">
+        <v>8788</v>
+      </c>
+    </row>
+    <row r="9876" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9876" t="s">
+        <v>8789</v>
+      </c>
+    </row>
+    <row r="9877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9877" t="s">
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="9878" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9878" t="s">
+        <v>8712</v>
+      </c>
+    </row>
+    <row r="9879" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9879" t="s">
+        <v>8472</v>
+      </c>
+    </row>
+    <row r="9880" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9880" t="s">
+        <v>8791</v>
+      </c>
+    </row>
+    <row r="9881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9881" t="s">
+        <v>8627</v>
+      </c>
+    </row>
+    <row r="9882" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9882" t="s">
+        <v>8792</v>
+      </c>
+    </row>
+    <row r="9883" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9883" t="s">
+        <v>8793</v>
+      </c>
+    </row>
+    <row r="9884" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9884" t="s">
+        <v>8794</v>
+      </c>
+    </row>
+    <row r="9885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9885" t="s">
+        <v>8795</v>
+      </c>
+    </row>
+    <row r="9886" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9886" t="s">
+        <v>8796</v>
+      </c>
+    </row>
+    <row r="9887" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9887" t="s">
+        <v>8797</v>
+      </c>
+    </row>
+    <row r="9888" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9888" t="s">
+        <v>7446</v>
+      </c>
+    </row>
+    <row r="9889" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9889" t="s">
+        <v>8798</v>
+      </c>
+    </row>
+    <row r="9890" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9890" t="s">
+        <v>8799</v>
+      </c>
+    </row>
+    <row r="9891" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9891" t="s">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="9892" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9892" t="s">
+        <v>8801</v>
+      </c>
+    </row>
+    <row r="9893" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9893" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="9894" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9894" t="s">
+        <v>8802</v>
+      </c>
+    </row>
+    <row r="9895" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9895" t="s">
+        <v>8803</v>
+      </c>
+    </row>
+    <row r="9896" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9896" t="s">
+        <v>8804</v>
+      </c>
+    </row>
+    <row r="9897" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9897" t="s">
+        <v>8805</v>
+      </c>
+    </row>
+    <row r="9898" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9898" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="9899" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9899" t="s">
+        <v>8806</v>
+      </c>
+    </row>
+    <row r="9900" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9900" t="s">
+        <v>8807</v>
+      </c>
+    </row>
+    <row r="9901" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9901" t="s">
+        <v>8808</v>
+      </c>
+    </row>
+    <row r="9902" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9902" t="s">
+        <v>6675</v>
+      </c>
+    </row>
+    <row r="9903" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9903" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="9904" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9904" t="s">
+        <v>8810</v>
+      </c>
+    </row>
+    <row r="9905" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9905" t="s">
+        <v>8811</v>
+      </c>
+    </row>
+    <row r="9906" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9906" t="s">
+        <v>8812</v>
+      </c>
+    </row>
+    <row r="9907" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9907" t="s">
+        <v>8813</v>
+      </c>
+    </row>
+    <row r="9908" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9908" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="9909" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9909" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="9910" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9910" t="s">
+        <v>8815</v>
+      </c>
+    </row>
+    <row r="9911" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9911" t="s">
+        <v>8816</v>
+      </c>
+    </row>
+    <row r="9912" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9912" t="s">
+        <v>8817</v>
+      </c>
+    </row>
+    <row r="9913" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9913" t="s">
+        <v>8818</v>
+      </c>
+    </row>
+    <row r="9914" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9914" t="s">
+        <v>8819</v>
+      </c>
+    </row>
+    <row r="9915" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9915" t="s">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="9916" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9916" t="s">
+        <v>8666</v>
+      </c>
+    </row>
+    <row r="9917" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9917" t="s">
+        <v>8406</v>
+      </c>
+    </row>
+    <row r="9918" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9918" t="s">
+        <v>8821</v>
+      </c>
+    </row>
+    <row r="9919" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9919" t="s">
+        <v>8822</v>
+      </c>
+    </row>
+    <row r="9920" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9920" t="s">
+        <v>8823</v>
+      </c>
+    </row>
+    <row r="9921" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9921" t="s">
+        <v>8824</v>
+      </c>
+    </row>
+    <row r="9922" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9922" t="s">
+        <v>8825</v>
+      </c>
+    </row>
+    <row r="9923" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9923" t="s">
+        <v>8826</v>
+      </c>
+    </row>
+    <row r="9924" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9924" t="s">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="9925" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9925" t="s">
+        <v>8827</v>
+      </c>
+    </row>
+    <row r="9926" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9926" t="s">
+        <v>8828</v>
+      </c>
+    </row>
+    <row r="9927" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9927" t="s">
+        <v>8829</v>
+      </c>
+    </row>
+    <row r="9928" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9928" t="s">
+        <v>8830</v>
+      </c>
+    </row>
+    <row r="9929" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9929" t="s">
+        <v>8831</v>
+      </c>
+    </row>
+    <row r="9930" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9930" t="s">
+        <v>8832</v>
+      </c>
+    </row>
+    <row r="9931" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9931" t="s">
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="9932" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9932" t="s">
+        <v>8834</v>
+      </c>
+    </row>
+    <row r="9933" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9933" t="s">
+        <v>8835</v>
+      </c>
+    </row>
+    <row r="9934" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9934" t="s">
+        <v>8836</v>
+      </c>
+    </row>
+    <row r="9935" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9935" t="s">
+        <v>8837</v>
+      </c>
+    </row>
+    <row r="9936" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9936" t="s">
+        <v>8838</v>
+      </c>
+    </row>
+    <row r="9937" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9937" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="9938" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9938" t="s">
+        <v>8839</v>
+      </c>
+    </row>
+    <row r="9939" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9939" t="s">
+        <v>8840</v>
+      </c>
+    </row>
+    <row r="9940" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9940" t="s">
+        <v>8841</v>
+      </c>
+    </row>
+    <row r="9941" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9941" t="s">
+        <v>8842</v>
+      </c>
+    </row>
+    <row r="9942" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9942" t="s">
+        <v>8843</v>
+      </c>
+    </row>
+    <row r="9943" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9943" t="s">
+        <v>8844</v>
+      </c>
+    </row>
+    <row r="9944" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9944" t="s">
+        <v>8845</v>
+      </c>
+    </row>
+    <row r="9945" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9945" t="s">
+        <v>8846</v>
+      </c>
+    </row>
+    <row r="9946" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9946" t="s">
+        <v>8847</v>
+      </c>
+    </row>
+    <row r="9947" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9947" t="s">
+        <v>8848</v>
+      </c>
+    </row>
+    <row r="9948" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9948" t="s">
+        <v>8849</v>
+      </c>
+    </row>
+    <row r="9949" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9949" t="s">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="9950" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9950" t="s">
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="9951" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9951" t="s">
+        <v>8851</v>
+      </c>
+    </row>
+    <row r="9952" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9952" t="s">
+        <v>8852</v>
+      </c>
+    </row>
+    <row r="9953" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9953" t="s">
+        <v>8853</v>
+      </c>
+    </row>
+    <row r="9954" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9954" t="s">
+        <v>8854</v>
+      </c>
+    </row>
+    <row r="9955" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9955" t="s">
+        <v>8855</v>
+      </c>
+    </row>
+    <row r="9956" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9956" t="s">
+        <v>8856</v>
+      </c>
+    </row>
+    <row r="9957" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9957" t="s">
+        <v>8857</v>
+      </c>
+    </row>
+    <row r="9958" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9958" t="s">
+        <v>8858</v>
+      </c>
+    </row>
+    <row r="9959" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9959" t="s">
+        <v>8859</v>
+      </c>
+    </row>
+    <row r="9960" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9960" t="s">
+        <v>8860</v>
+      </c>
+    </row>
+    <row r="9961" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9961" t="s">
+        <v>8861</v>
+      </c>
+    </row>
+    <row r="9962" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9962" t="s">
+        <v>8862</v>
+      </c>
+    </row>
+    <row r="9963" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9963" t="s">
+        <v>8863</v>
+      </c>
+    </row>
+    <row r="9964" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9964" t="s">
+        <v>8864</v>
+      </c>
+    </row>
+    <row r="9965" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9965" t="s">
+        <v>8655</v>
+      </c>
+    </row>
+    <row r="9966" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9966" t="s">
+        <v>8865</v>
+      </c>
+    </row>
+    <row r="9967" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9967" t="s">
+        <v>8866</v>
+      </c>
+    </row>
+    <row r="9968" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9968" t="s">
+        <v>8867</v>
+      </c>
+    </row>
+    <row r="9969" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9969" t="s">
+        <v>8868</v>
+      </c>
+    </row>
+    <row r="9970" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9970" t="s">
+        <v>8869</v>
+      </c>
+    </row>
+    <row r="9971" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9971" t="s">
+        <v>8870</v>
+      </c>
+    </row>
+    <row r="9972" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9972" t="s">
+        <v>8392</v>
+      </c>
+    </row>
+    <row r="9973" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9973" t="s">
+        <v>8871</v>
+      </c>
+    </row>
+    <row r="9974" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9974" t="s">
+        <v>8872</v>
+      </c>
+    </row>
+    <row r="9975" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9975" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="9976" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9976" t="s">
+        <v>6267</v>
+      </c>
+    </row>
+    <row r="9977" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9977" t="s">
+        <v>8873</v>
+      </c>
+    </row>
+    <row r="9978" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9978" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="9979" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9979" t="s">
+        <v>8874</v>
+      </c>
+    </row>
+    <row r="9980" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9980" t="s">
+        <v>4891</v>
+      </c>
+    </row>
+    <row r="9981" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9981" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="9982" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9982" t="s">
+        <v>8875</v>
+      </c>
+    </row>
+    <row r="9983" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9983" t="s">
+        <v>8876</v>
+      </c>
+    </row>
+    <row r="9984" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9984" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="9985" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9985" t="s">
+        <v>8877</v>
+      </c>
+    </row>
+    <row r="9986" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9986" t="s">
+        <v>8878</v>
+      </c>
+    </row>
+    <row r="9987" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9987" t="s">
+        <v>8879</v>
+      </c>
+    </row>
+    <row r="9988" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9988" t="s">
+        <v>8880</v>
+      </c>
+    </row>
+    <row r="9989" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9989" t="s">
+        <v>8881</v>
+      </c>
+    </row>
+    <row r="9990" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9990" t="s">
+        <v>8882</v>
+      </c>
+    </row>
+    <row r="9991" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9991" t="s">
+        <v>8883</v>
+      </c>
+    </row>
+    <row r="9992" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9992" t="s">
+        <v>8884</v>
+      </c>
+    </row>
+    <row r="9993" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9993" t="s">
+        <v>8885</v>
+      </c>
+    </row>
+    <row r="9994" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9994" t="s">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="9995" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9995" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="9996" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9996" t="s">
+        <v>8886</v>
+      </c>
+    </row>
+    <row r="9997" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9997" t="s">
+        <v>8887</v>
+      </c>
+    </row>
+    <row r="9998" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9998" t="s">
+        <v>8888</v>
+      </c>
+    </row>
+    <row r="9999" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9999" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="10000" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10000" t="s">
+        <v>8889</v>
+      </c>
+    </row>
+    <row r="10001" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10001" t="s">
+        <v>8890</v>
+      </c>
+    </row>
+    <row r="10002" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10002" t="s">
+        <v>8891</v>
+      </c>
+    </row>
+    <row r="10003" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10003" t="s">
+        <v>8892</v>
+      </c>
+    </row>
+    <row r="10004" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10004" t="s">
+        <v>8893</v>
+      </c>
+    </row>
+    <row r="10005" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10005" t="s">
+        <v>8894</v>
+      </c>
+    </row>
+    <row r="10006" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10006" t="s">
+        <v>8895</v>
+      </c>
+    </row>
+    <row r="10007" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10007" t="s">
+        <v>8896</v>
+      </c>
+    </row>
+    <row r="10008" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10008" t="s">
+        <v>8897</v>
+      </c>
+    </row>
+    <row r="10009" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10009" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="10010" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10010" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="10011" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10011" t="s">
+        <v>8898</v>
+      </c>
+    </row>
+    <row r="10012" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10012" t="s">
+        <v>8899</v>
+      </c>
+    </row>
+    <row r="10013" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10013" t="s">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="10014" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10014" t="s">
+        <v>8901</v>
+      </c>
+    </row>
+    <row r="10015" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10015" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="10016" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10016" t="s">
+        <v>8902</v>
+      </c>
+    </row>
+    <row r="10017" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10017" t="s">
+        <v>8903</v>
+      </c>
+    </row>
+    <row r="10018" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10018" t="s">
+        <v>8904</v>
+      </c>
+    </row>
+    <row r="10019" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10019" t="s">
+        <v>8905</v>
+      </c>
+    </row>
+    <row r="10020" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10020" t="s">
+        <v>8906</v>
+      </c>
+    </row>
+    <row r="10021" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10021" t="s">
+        <v>8907</v>
+      </c>
+    </row>
+    <row r="10022" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10022" t="s">
+        <v>8908</v>
+      </c>
+    </row>
+    <row r="10023" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10023" t="s">
+        <v>8909</v>
+      </c>
+    </row>
+    <row r="10024" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10024" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="10025" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10025" t="s">
+        <v>8910</v>
+      </c>
+    </row>
+    <row r="10026" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10026" t="s">
+        <v>8911</v>
+      </c>
+    </row>
+    <row r="10027" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10027" t="s">
+        <v>8912</v>
+      </c>
+    </row>
+    <row r="10028" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10028" t="s">
+        <v>8913</v>
+      </c>
+    </row>
+    <row r="10029" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10029" t="s">
+        <v>8914</v>
+      </c>
+    </row>
+    <row r="10030" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10030" t="s">
+        <v>8915</v>
+      </c>
+    </row>
+    <row r="10031" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10031" t="s">
+        <v>7493</v>
+      </c>
+    </row>
+    <row r="10032" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10032" t="s">
+        <v>8916</v>
+      </c>
+    </row>
+    <row r="10033" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10033" t="s">
+        <v>8917</v>
+      </c>
+    </row>
+    <row r="10034" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10034" t="s">
+        <v>8918</v>
+      </c>
+    </row>
+    <row r="10035" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10035" t="s">
+        <v>8919</v>
+      </c>
+    </row>
+    <row r="10036" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10036" t="s">
+        <v>8920</v>
+      </c>
+    </row>
+    <row r="10037" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10037" t="s">
+        <v>8921</v>
+      </c>
+    </row>
+    <row r="10038" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10038" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="10039" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10039" t="s">
+        <v>8922</v>
+      </c>
+    </row>
+    <row r="10040" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10040" t="s">
+        <v>8923</v>
+      </c>
+    </row>
+    <row r="10041" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10041" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="10042" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10042" t="s">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="10043" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10043" t="s">
+        <v>8924</v>
+      </c>
+    </row>
+    <row r="10044" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10044" t="s">
+        <v>6387</v>
+      </c>
+    </row>
+    <row r="10045" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10045" t="s">
+        <v>8925</v>
+      </c>
+    </row>
+    <row r="10046" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10046" t="s">
+        <v>8926</v>
+      </c>
+    </row>
+    <row r="10047" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10047" t="s">
+        <v>8927</v>
+      </c>
+    </row>
+    <row r="10048" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10048" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="10049" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10049" t="s">
+        <v>8928</v>
+      </c>
+    </row>
+    <row r="10050" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10050" t="s">
+        <v>8929</v>
+      </c>
+    </row>
+    <row r="10051" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10051" t="s">
+        <v>8930</v>
+      </c>
+    </row>
+    <row r="10052" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10052" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="10053" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10053" t="s">
+        <v>8931</v>
+      </c>
+    </row>
+    <row r="10054" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10054" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10055" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10055" t="s">
+        <v>8932</v>
+      </c>
+    </row>
+    <row r="10056" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10056" t="s">
+        <v>8933</v>
+      </c>
+    </row>
+    <row r="10057" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10057" t="s">
+        <v>8934</v>
+      </c>
+    </row>
+    <row r="10058" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10058" t="s">
+        <v>8935</v>
+      </c>
+    </row>
+    <row r="10059" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10059" t="s">
+        <v>8936</v>
+      </c>
+    </row>
+    <row r="10060" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10060" t="s">
+        <v>8937</v>
+      </c>
+    </row>
+    <row r="10061" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10061" t="s">
+        <v>8938</v>
+      </c>
+    </row>
+    <row r="10062" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10062" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="10063" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10063" t="s">
+        <v>8939</v>
+      </c>
+    </row>
+    <row r="10064" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10064" t="s">
+        <v>8940</v>
+      </c>
+    </row>
+    <row r="10065" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10065" t="s">
+        <v>8941</v>
+      </c>
+    </row>
+    <row r="10066" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10066" t="s">
+        <v>7594</v>
+      </c>
+    </row>
+    <row r="10067" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10067" t="s">
+        <v>8942</v>
+      </c>
+    </row>
+    <row r="10068" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10068" t="s">
+        <v>8943</v>
+      </c>
+    </row>
+    <row r="10069" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10069" t="s">
+        <v>8944</v>
+      </c>
+    </row>
+    <row r="10070" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10070" t="s">
+        <v>8945</v>
+      </c>
+    </row>
+    <row r="10071" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10071" t="s">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="10072" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10072" t="s">
+        <v>8946</v>
+      </c>
+    </row>
+    <row r="10073" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10073" t="s">
+        <v>8947</v>
+      </c>
+    </row>
+    <row r="10074" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10074" t="s">
+        <v>8948</v>
+      </c>
+    </row>
+    <row r="10075" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10075" t="s">
+        <v>8949</v>
+      </c>
+    </row>
+    <row r="10076" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10076" t="s">
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="10077" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10077" t="s">
+        <v>8951</v>
+      </c>
+    </row>
+    <row r="10078" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10078" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="10079" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10079" t="s">
+        <v>8952</v>
+      </c>
+    </row>
+    <row r="10080" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10080" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="10081" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10081" t="s">
+        <v>8953</v>
+      </c>
+    </row>
+    <row r="10082" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10082" t="s">
+        <v>8954</v>
+      </c>
+    </row>
+    <row r="10083" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10083" t="s">
+        <v>6721</v>
+      </c>
+    </row>
+    <row r="10084" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10084" t="s">
+        <v>8955</v>
+      </c>
+    </row>
+    <row r="10085" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10085" t="s">
+        <v>8956</v>
+      </c>
+    </row>
+    <row r="10086" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10086" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="10087" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10087" t="s">
+        <v>8957</v>
+      </c>
+    </row>
+    <row r="10088" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10088" t="s">
+        <v>8958</v>
+      </c>
+    </row>
+    <row r="10089" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10089" t="s">
+        <v>8959</v>
+      </c>
+    </row>
+    <row r="10090" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10090" t="s">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="10091" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10091" t="s">
+        <v>7033</v>
+      </c>
+    </row>
+    <row r="10092" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10092" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="10093" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10093" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="10094" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10094" t="s">
+        <v>8961</v>
+      </c>
+    </row>
+    <row r="10095" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10095" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="10096" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10096" t="s">
+        <v>6579</v>
+      </c>
+    </row>
+    <row r="10097" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10097" t="s">
+        <v>7724</v>
+      </c>
+    </row>
+    <row r="10098" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10098" t="s">
+        <v>8962</v>
+      </c>
+    </row>
+    <row r="10099" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10099" t="s">
+        <v>8963</v>
+      </c>
+    </row>
+    <row r="10100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10100" t="s">
+        <v>8964</v>
+      </c>
+    </row>
+    <row r="10101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10101" t="s">
+        <v>8965</v>
+      </c>
+    </row>
+    <row r="10102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10102" t="s">
+        <v>8966</v>
+      </c>
+    </row>
+    <row r="10103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10103" t="s">
+        <v>8967</v>
+      </c>
+    </row>
+    <row r="10104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10104" t="s">
+        <v>8968</v>
+      </c>
+    </row>
+    <row r="10105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10105" t="s">
+        <v>8969</v>
+      </c>
+    </row>
+    <row r="10106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10106" t="s">
+        <v>8970</v>
+      </c>
+    </row>
+    <row r="10107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10107" t="s">
+        <v>8971</v>
+      </c>
+    </row>
+    <row r="10108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10108" t="s">
+        <v>8972</v>
+      </c>
+    </row>
+    <row r="10109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10109" t="s">
+        <v>8973</v>
+      </c>
+    </row>
+    <row r="10110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10110" t="s">
+        <v>8974</v>
+      </c>
+    </row>
+    <row r="10111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10111" t="s">
+        <v>8975</v>
+      </c>
+    </row>
+    <row r="10112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10112" t="s">
+        <v>8976</v>
+      </c>
+    </row>
+    <row r="10113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10113" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10114" t="s">
+        <v>8977</v>
+      </c>
+    </row>
+    <row r="10115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10115" t="s">
+        <v>8978</v>
+      </c>
+    </row>
+    <row r="10116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10116" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="10117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10117" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="10118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10118" t="s">
+        <v>7043</v>
+      </c>
+    </row>
+    <row r="10119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10119" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10120" t="s">
+        <v>8979</v>
+      </c>
+    </row>
+    <row r="10121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10121" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="10122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10122" t="s">
+        <v>8980</v>
+      </c>
+    </row>
+    <row r="10123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10123" t="s">
+        <v>8981</v>
+      </c>
+    </row>
+    <row r="10124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10124" t="s">
+        <v>8982</v>
+      </c>
+    </row>
+    <row r="10125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10125" t="s">
+        <v>8983</v>
+      </c>
+    </row>
+    <row r="10126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10126" t="s">
+        <v>8984</v>
+      </c>
+    </row>
+    <row r="10127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10127" t="s">
+        <v>8985</v>
+      </c>
+    </row>
+    <row r="10128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10128" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="10129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10129" t="s">
+        <v>8986</v>
+      </c>
+    </row>
+    <row r="10130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10130" t="s">
+        <v>8987</v>
+      </c>
+    </row>
+    <row r="10131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10131" t="s">
+        <v>8988</v>
+      </c>
+    </row>
+    <row r="10132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10132" t="s">
+        <v>8989</v>
+      </c>
+    </row>
+    <row r="10133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10133" t="s">
+        <v>8990</v>
+      </c>
+    </row>
+    <row r="10134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10134" t="s">
+        <v>8991</v>
+      </c>
+    </row>
+    <row r="10135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10135" t="s">
+        <v>8992</v>
+      </c>
+    </row>
+    <row r="10136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10136" t="s">
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="10137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10137" t="s">
+        <v>8993</v>
+      </c>
+    </row>
+    <row r="10138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10138" t="s">
+        <v>8994</v>
+      </c>
+    </row>
+    <row r="10139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10139" t="s">
+        <v>8995</v>
+      </c>
+    </row>
+    <row r="10140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10140" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="10141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10141" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="10142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10142" t="s">
+        <v>8996</v>
+      </c>
+    </row>
+    <row r="10143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10143" t="s">
+        <v>5714</v>
+      </c>
+    </row>
+    <row r="10144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10144" t="s">
+        <v>8997</v>
+      </c>
+    </row>
+    <row r="10145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10145" t="s">
+        <v>8998</v>
+      </c>
+    </row>
+    <row r="10146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10146" t="s">
+        <v>8999</v>
+      </c>
+    </row>
+    <row r="10147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10147" t="s">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="10148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10148" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="10149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10149" t="s">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="10150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10150" t="s">
+        <v>9002</v>
+      </c>
+    </row>
+    <row r="10151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10151" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10152" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="10153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10153" t="s">
+        <v>9003</v>
+      </c>
+    </row>
+    <row r="10154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10154" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="10155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10155" t="s">
+        <v>9004</v>
+      </c>
+    </row>
+    <row r="10156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10156" t="s">
+        <v>9005</v>
+      </c>
+    </row>
+    <row r="10157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10157" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="10158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10158" t="s">
+        <v>9006</v>
+      </c>
+    </row>
+    <row r="10159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10159" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="10160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10160" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10161" t="s">
+        <v>9007</v>
+      </c>
+    </row>
+    <row r="10162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10162" t="s">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="10163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10163" t="s">
+        <v>9009</v>
+      </c>
+    </row>
+    <row r="10164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10164" t="s">
+        <v>9010</v>
+      </c>
+    </row>
+    <row r="10165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10165" t="s">
+        <v>9011</v>
+      </c>
+    </row>
+    <row r="10166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10166" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="10167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10167" t="s">
+        <v>9012</v>
+      </c>
+    </row>
+    <row r="10168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10168" t="s">
+        <v>9013</v>
+      </c>
+    </row>
+    <row r="10169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10169" t="s">
+        <v>9014</v>
+      </c>
+    </row>
+    <row r="10170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10170" t="s">
+        <v>6454</v>
+      </c>
+    </row>
+    <row r="10171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10171" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="10172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10172" t="s">
+        <v>9015</v>
+      </c>
+    </row>
+    <row r="10173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10173" t="s">
+        <v>9016</v>
+      </c>
+    </row>
+    <row r="10174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10174" t="s">
+        <v>9017</v>
+      </c>
+    </row>
+    <row r="10175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10175" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="10176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10176" t="s">
+        <v>9018</v>
+      </c>
+    </row>
+    <row r="10177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10177" t="s">
+        <v>9019</v>
+      </c>
+    </row>
+    <row r="10178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10178" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="10179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10179" t="s">
+        <v>6770</v>
+      </c>
+    </row>
+    <row r="10180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10180" t="s">
+        <v>9020</v>
+      </c>
+    </row>
+    <row r="10181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10181" t="s">
+        <v>9021</v>
+      </c>
+    </row>
+    <row r="10182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10182" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="10183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10183" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="10184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10184" t="s">
+        <v>9022</v>
+      </c>
+    </row>
+    <row r="10185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10185" t="s">
+        <v>9023</v>
+      </c>
+    </row>
+    <row r="10186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10186" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10187" t="s">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="10188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10188" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="10189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10189" t="s">
+        <v>9024</v>
+      </c>
+    </row>
+    <row r="10190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10190" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10191" t="s">
+        <v>6555</v>
+      </c>
+    </row>
+    <row r="10192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10192" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10193" t="s">
+        <v>9025</v>
+      </c>
+    </row>
+    <row r="10194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10194" t="s">
+        <v>9026</v>
+      </c>
+    </row>
+    <row r="10195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10195" t="s">
+        <v>9027</v>
+      </c>
+    </row>
+    <row r="10196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10196" t="s">
+        <v>9028</v>
+      </c>
+    </row>
+    <row r="10197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10197" t="s">
+        <v>9029</v>
+      </c>
+    </row>
+    <row r="10198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10198" t="s">
+        <v>8441</v>
+      </c>
+    </row>
+    <row r="10199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10199" t="s">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="10200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10200" t="s">
+        <v>7203</v>
+      </c>
+    </row>
+    <row r="10201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10201" t="s">
+        <v>9030</v>
+      </c>
+    </row>
+    <row r="10202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10202" t="s">
+        <v>9031</v>
+      </c>
+    </row>
+    <row r="10203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10203" t="s">
+        <v>9032</v>
+      </c>
+    </row>
+    <row r="10204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10204" t="s">
+        <v>9033</v>
+      </c>
+    </row>
+    <row r="10205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10205" t="s">
+        <v>9034</v>
+      </c>
+    </row>
+    <row r="10206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10206" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="10207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10207" t="s">
+        <v>9035</v>
+      </c>
+    </row>
+    <row r="10208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10208" t="s">
+        <v>9036</v>
+      </c>
+    </row>
+    <row r="10209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10209" t="s">
+        <v>9037</v>
+      </c>
+    </row>
+    <row r="10210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10210" t="s">
+        <v>9038</v>
+      </c>
+    </row>
+    <row r="10211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10211" t="s">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="10212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10212" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="10213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10213" t="s">
+        <v>9039</v>
+      </c>
+    </row>
+    <row r="10214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10214" t="s">
+        <v>9040</v>
+      </c>
+    </row>
+    <row r="10215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10215" t="s">
+        <v>9041</v>
+      </c>
+    </row>
+    <row r="10216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10216" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="10217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10217" t="s">
+        <v>9042</v>
+      </c>
+    </row>
+    <row r="10218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10218" t="s">
+        <v>9043</v>
+      </c>
+    </row>
+    <row r="10219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10219" t="s">
+        <v>9044</v>
+      </c>
+    </row>
+    <row r="10220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10220" t="s">
+        <v>9045</v>
+      </c>
+    </row>
+    <row r="10221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10221" t="s">
+        <v>9046</v>
+      </c>
+    </row>
+    <row r="10222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10222" t="s">
+        <v>9047</v>
+      </c>
+    </row>
+    <row r="10223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10223" t="s">
+        <v>9048</v>
+      </c>
+    </row>
+    <row r="10224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10224" t="s">
+        <v>9049</v>
+      </c>
+    </row>
+    <row r="10225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10225" t="s">
+        <v>9050</v>
+      </c>
+    </row>
+    <row r="10226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10226" t="s">
+        <v>9051</v>
+      </c>
+    </row>
+    <row r="10227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10227" t="s">
+        <v>9052</v>
+      </c>
+    </row>
+    <row r="10228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10228" t="s">
+        <v>9053</v>
+      </c>
+    </row>
+    <row r="10229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10229" t="s">
+        <v>9054</v>
+      </c>
+    </row>
+    <row r="10230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10230" t="s">
+        <v>9055</v>
+      </c>
+    </row>
+    <row r="10231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10231" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="10232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10232" t="s">
+        <v>9056</v>
+      </c>
+    </row>
+    <row r="10233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10233" t="s">
+        <v>9057</v>
+      </c>
+    </row>
+    <row r="10234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10234" t="s">
+        <v>9058</v>
+      </c>
+    </row>
+    <row r="10235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10235" t="s">
+        <v>9059</v>
+      </c>
+    </row>
+    <row r="10236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10236" t="s">
+        <v>9060</v>
+      </c>
+    </row>
+    <row r="10237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10237" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="10238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10238" t="s">
+        <v>9061</v>
+      </c>
+    </row>
+    <row r="10239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10239" t="s">
+        <v>9062</v>
+      </c>
+    </row>
+    <row r="10240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10240" t="s">
+        <v>9063</v>
+      </c>
+    </row>
+    <row r="10241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10241" t="s">
+        <v>9064</v>
+      </c>
+    </row>
+    <row r="10242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10242" t="s">
+        <v>9065</v>
+      </c>
+    </row>
+    <row r="10243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10243" t="s">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="10244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10244" t="s">
+        <v>9066</v>
+      </c>
+    </row>
+    <row r="10245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10245" t="s">
+        <v>6914</v>
+      </c>
+    </row>
+    <row r="10246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10246" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="10247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10247" t="s">
+        <v>9067</v>
+      </c>
+    </row>
+    <row r="10248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10248" t="s">
+        <v>9068</v>
+      </c>
+    </row>
+    <row r="10249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10249" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10250" t="s">
+        <v>9069</v>
+      </c>
+    </row>
+    <row r="10251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10251" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10252" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="10253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10253" t="s">
+        <v>9070</v>
+      </c>
+    </row>
+    <row r="10254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10254" t="s">
+        <v>9071</v>
+      </c>
+    </row>
+    <row r="10255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10255" t="s">
+        <v>9072</v>
+      </c>
+    </row>
+    <row r="10256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10256" t="s">
+        <v>9073</v>
+      </c>
+    </row>
+    <row r="10257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10257" t="s">
+        <v>9074</v>
+      </c>
+    </row>
+    <row r="10258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10258" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="10259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10259" t="s">
+        <v>9075</v>
+      </c>
+    </row>
+    <row r="10260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10260" t="s">
+        <v>9076</v>
+      </c>
+    </row>
+    <row r="10261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10261" t="s">
+        <v>9077</v>
+      </c>
+    </row>
+    <row r="10262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10262" t="s">
+        <v>9078</v>
+      </c>
+    </row>
+    <row r="10263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10263" t="s">
+        <v>9079</v>
+      </c>
+    </row>
+    <row r="10264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10264" t="s">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="10265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10265" t="s">
+        <v>8326</v>
+      </c>
+    </row>
+    <row r="10266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10266" t="s">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="10267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10267" t="s">
+        <v>9081</v>
+      </c>
+    </row>
+    <row r="10268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10268" t="s">
+        <v>9082</v>
+      </c>
+    </row>
+    <row r="10269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10269" t="s">
+        <v>9083</v>
+      </c>
+    </row>
+    <row r="10270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10270" t="s">
+        <v>9084</v>
+      </c>
+    </row>
+    <row r="10271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10271" t="s">
+        <v>9085</v>
+      </c>
+    </row>
+    <row r="10272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10272" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="10273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10273" t="s">
+        <v>9086</v>
+      </c>
+    </row>
+    <row r="10274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10274" t="s">
+        <v>9087</v>
+      </c>
+    </row>
+    <row r="10275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10275" t="s">
+        <v>9088</v>
+      </c>
+    </row>
+    <row r="10276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10276" t="s">
+        <v>9089</v>
+      </c>
+    </row>
+    <row r="10277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10277" t="s">
+        <v>9090</v>
+      </c>
+    </row>
+    <row r="10278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10278" t="s">
+        <v>9091</v>
+      </c>
+    </row>
+    <row r="10279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10279" t="s">
+        <v>9092</v>
+      </c>
+    </row>
+    <row r="10280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10280" t="s">
+        <v>9093</v>
+      </c>
+    </row>
+    <row r="10281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10281" t="s">
+        <v>9094</v>
+      </c>
+    </row>
+    <row r="10282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10282" t="s">
+        <v>9095</v>
+      </c>
+    </row>
+    <row r="10283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10283" t="s">
+        <v>9096</v>
+      </c>
+    </row>
+    <row r="10284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10284" t="s">
+        <v>9097</v>
+      </c>
+    </row>
+    <row r="10285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10285" t="s">
+        <v>9098</v>
+      </c>
+    </row>
+    <row r="10286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10286" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="10287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10287" t="s">
+        <v>9099</v>
+      </c>
+    </row>
+    <row r="10288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10288" t="s">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="10289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10289" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="10290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10290" t="s">
+        <v>9101</v>
+      </c>
+    </row>
+    <row r="10291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10291" t="s">
+        <v>9102</v>
+      </c>
+    </row>
+    <row r="10292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10292" t="s">
+        <v>9103</v>
+      </c>
+    </row>
+    <row r="10293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10293" t="s">
+        <v>9104</v>
+      </c>
+    </row>
+    <row r="10294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10294" t="s">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="10295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10295" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="10296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10296" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="10297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10297" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10298" t="s">
+        <v>9105</v>
+      </c>
+    </row>
+    <row r="10299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10299" t="s">
+        <v>6475</v>
+      </c>
+    </row>
+    <row r="10300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10300" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10301" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="10302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10302" t="s">
+        <v>9106</v>
+      </c>
+    </row>
+    <row r="10303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10303" t="s">
+        <v>9107</v>
+      </c>
+    </row>
+    <row r="10304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10304" t="s">
+        <v>9108</v>
+      </c>
+    </row>
+    <row r="10305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10305" t="s">
+        <v>9109</v>
+      </c>
+    </row>
+    <row r="10306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10306" t="s">
+        <v>9110</v>
+      </c>
+    </row>
+    <row r="10307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10307" t="s">
+        <v>9111</v>
+      </c>
+    </row>
+    <row r="10308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10308" t="s">
+        <v>9112</v>
+      </c>
+    </row>
+    <row r="10309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10309" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10310" t="s">
+        <v>9113</v>
+      </c>
+    </row>
+    <row r="10311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10311" t="s">
+        <v>9114</v>
+      </c>
+    </row>
+    <row r="10312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10312" t="s">
+        <v>9115</v>
+      </c>
+    </row>
+    <row r="10313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10313" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="10314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10314" t="s">
+        <v>9116</v>
+      </c>
+    </row>
+    <row r="10315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10315" t="s">
+        <v>9117</v>
+      </c>
+    </row>
+    <row r="10316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10316" t="s">
+        <v>9118</v>
+      </c>
+    </row>
+    <row r="10317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10317" t="s">
+        <v>9119</v>
+      </c>
+    </row>
+    <row r="10318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10318" t="s">
+        <v>9120</v>
+      </c>
+    </row>
+    <row r="10319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10319" t="s">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="10320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10320" t="s">
+        <v>9121</v>
+      </c>
+    </row>
+    <row r="10321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10321" t="s">
+        <v>9122</v>
+      </c>
+    </row>
+    <row r="10322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10322" t="s">
+        <v>9123</v>
+      </c>
+    </row>
+    <row r="10323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10323" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10324" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10325" t="s">
+        <v>8281</v>
+      </c>
+    </row>
+    <row r="10326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10326" t="s">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="10327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10327" t="s">
+        <v>9124</v>
+      </c>
+    </row>
+    <row r="10328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10328" t="s">
+        <v>9125</v>
+      </c>
+    </row>
+    <row r="10329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10329" t="s">
+        <v>9126</v>
+      </c>
+    </row>
+    <row r="10330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10330" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="10331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10331" t="s">
+        <v>9127</v>
+      </c>
+    </row>
+    <row r="10332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10332" t="s">
+        <v>9128</v>
+      </c>
+    </row>
+    <row r="10333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10333" t="s">
+        <v>9129</v>
+      </c>
+    </row>
+    <row r="10334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10334" t="s">
+        <v>9130</v>
+      </c>
+    </row>
+    <row r="10335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10335" t="s">
+        <v>9131</v>
+      </c>
+    </row>
+    <row r="10336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10336" t="s">
+        <v>9132</v>
+      </c>
+    </row>
+    <row r="10337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10337" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="10338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10338" t="s">
+        <v>6321</v>
+      </c>
+    </row>
+    <row r="10339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10339" t="s">
+        <v>9133</v>
+      </c>
+    </row>
+    <row r="10340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10340" t="s">
+        <v>9134</v>
+      </c>
+    </row>
+    <row r="10341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10341" t="s">
+        <v>9135</v>
+      </c>
+    </row>
+    <row r="10342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10342" t="s">
+        <v>9136</v>
+      </c>
+    </row>
+    <row r="10343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10343" t="s">
+        <v>9137</v>
+      </c>
+    </row>
+    <row r="10344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10344" t="s">
+        <v>8262</v>
+      </c>
+    </row>
+    <row r="10345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10345" t="s">
+        <v>9138</v>
+      </c>
+    </row>
+    <row r="10346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10346" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="10347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10347" t="s">
+        <v>9139</v>
+      </c>
+    </row>
+    <row r="10348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10348" t="s">
+        <v>9140</v>
+      </c>
+    </row>
+    <row r="10349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10349" t="s">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="10350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10350" t="s">
+        <v>9141</v>
+      </c>
+    </row>
+    <row r="10351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10351" t="s">
+        <v>7067</v>
+      </c>
+    </row>
+    <row r="10352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10352" t="s">
+        <v>9142</v>
+      </c>
+    </row>
+    <row r="10353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10353" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="10354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10354" t="s">
+        <v>9143</v>
+      </c>
+    </row>
+    <row r="10355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10355" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="10356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10356" t="s">
+        <v>9144</v>
+      </c>
+    </row>
+    <row r="10357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10357" t="s">
+        <v>9145</v>
+      </c>
+    </row>
+    <row r="10358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10358" t="s">
+        <v>9146</v>
+      </c>
+    </row>
+    <row r="10359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10359" t="s">
+        <v>9147</v>
+      </c>
+    </row>
+    <row r="10360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10360" t="s">
+        <v>9148</v>
+      </c>
+    </row>
+    <row r="10361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10361" t="s">
+        <v>9149</v>
+      </c>
+    </row>
+    <row r="10362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10362" t="s">
+        <v>9150</v>
+      </c>
+    </row>
+    <row r="10363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10363" t="s">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="10364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10364" t="s">
+        <v>9151</v>
+      </c>
+    </row>
+    <row r="10365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10365" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="10366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10366" t="s">
+        <v>9152</v>
+      </c>
+    </row>
+    <row r="10367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10367" t="s">
+        <v>9153</v>
+      </c>
+    </row>
+    <row r="10368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10368" t="s">
+        <v>9154</v>
+      </c>
+    </row>
+    <row r="10369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10369" t="s">
+        <v>9155</v>
+      </c>
+    </row>
+    <row r="10370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10370" t="s">
+        <v>9156</v>
+      </c>
+    </row>
+    <row r="10371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10371" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="10372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10372" t="s">
+        <v>9157</v>
+      </c>
+    </row>
+    <row r="10373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10373" t="s">
+        <v>9158</v>
+      </c>
+    </row>
+    <row r="10374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10374" t="s">
+        <v>9159</v>
+      </c>
+    </row>
+    <row r="10375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10375" t="s">
+        <v>9160</v>
+      </c>
+    </row>
+    <row r="10376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10376" t="s">
+        <v>9161</v>
+      </c>
+    </row>
+    <row r="10377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10377" t="s">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="10378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10378" t="s">
+        <v>9162</v>
+      </c>
+    </row>
+    <row r="10379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10379" t="s">
+        <v>9163</v>
+      </c>
+    </row>
+    <row r="10380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10380" t="s">
+        <v>9164</v>
+      </c>
+    </row>
+    <row r="10381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10381" t="s">
+        <v>9165</v>
+      </c>
+    </row>
+    <row r="10382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10382" t="s">
+        <v>9166</v>
+      </c>
+    </row>
+    <row r="10383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10383" t="s">
+        <v>9167</v>
+      </c>
+    </row>
+    <row r="10384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10384" t="s">
+        <v>9168</v>
+      </c>
+    </row>
+    <row r="10385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10385" t="s">
+        <v>9169</v>
+      </c>
+    </row>
+    <row r="10386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10386" t="s">
+        <v>9170</v>
+      </c>
+    </row>
+    <row r="10387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10387" t="s">
+        <v>9171</v>
+      </c>
+    </row>
+    <row r="10388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10388" t="s">
+        <v>9172</v>
+      </c>
+    </row>
+    <row r="10389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10389" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10390" t="s">
+        <v>9173</v>
+      </c>
+    </row>
+    <row r="10391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10391" t="s">
+        <v>9174</v>
+      </c>
+    </row>
+    <row r="10392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10392" t="s">
+        <v>9175</v>
+      </c>
+    </row>
+    <row r="10393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10393" t="s">
+        <v>9176</v>
+      </c>
+    </row>
+    <row r="10394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10394" t="s">
+        <v>9177</v>
+      </c>
+    </row>
+    <row r="10395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10395" t="s">
+        <v>7808</v>
+      </c>
+    </row>
+    <row r="10396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10396" t="s">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="10397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10397" t="s">
+        <v>7118</v>
+      </c>
+    </row>
+    <row r="10398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10398" t="s">
+        <v>9178</v>
+      </c>
+    </row>
+    <row r="10399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10399" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="10400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10400" t="s">
+        <v>9179</v>
+      </c>
+    </row>
+    <row r="10401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10401" t="s">
+        <v>9180</v>
+      </c>
+    </row>
+    <row r="10402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10402" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="10403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10403" t="s">
+        <v>9181</v>
+      </c>
+    </row>
+    <row r="10404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10404" t="s">
+        <v>9182</v>
+      </c>
+    </row>
+    <row r="10405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10405" t="s">
+        <v>9183</v>
+      </c>
+    </row>
+    <row r="10406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10406" t="s">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="10407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10407" t="s">
+        <v>9184</v>
+      </c>
+    </row>
+    <row r="10408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10408" t="s">
+        <v>9185</v>
+      </c>
+    </row>
+    <row r="10409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10409" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10410" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="10411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10411" t="s">
+        <v>9186</v>
+      </c>
+    </row>
+    <row r="10412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10412" t="s">
+        <v>9187</v>
+      </c>
+    </row>
+    <row r="10413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10413" t="s">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="10414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10414" t="s">
+        <v>9189</v>
+      </c>
+    </row>
+    <row r="10415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10415" t="s">
+        <v>8198</v>
+      </c>
+    </row>
+    <row r="10416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10416" t="s">
+        <v>9190</v>
+      </c>
+    </row>
+    <row r="10417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10417" t="s">
+        <v>9191</v>
+      </c>
+    </row>
+    <row r="10418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10418" t="s">
+        <v>8451</v>
+      </c>
+    </row>
+    <row r="10419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10419" t="s">
+        <v>9192</v>
+      </c>
+    </row>
+    <row r="10420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10420" t="s">
+        <v>9193</v>
+      </c>
+    </row>
+    <row r="10421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10421" t="s">
+        <v>9194</v>
+      </c>
+    </row>
+    <row r="10422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10422" t="s">
+        <v>9195</v>
+      </c>
+    </row>
+    <row r="10423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10423" t="s">
+        <v>9196</v>
+      </c>
+    </row>
+    <row r="10424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10424" t="s">
+        <v>9197</v>
+      </c>
+    </row>
+    <row r="10425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10425" t="s">
+        <v>9198</v>
+      </c>
+    </row>
+    <row r="10426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10426" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="10427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10427" t="s">
+        <v>9199</v>
+      </c>
+    </row>
+    <row r="10428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10428" t="s">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="10429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10429" t="s">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="10430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10430" t="s">
+        <v>9202</v>
+      </c>
+    </row>
+    <row r="10431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10431" t="s">
+        <v>9203</v>
+      </c>
+    </row>
+    <row r="10432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10432" t="s">
+        <v>9204</v>
+      </c>
+    </row>
+    <row r="10433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10433" t="s">
+        <v>9205</v>
+      </c>
+    </row>
+    <row r="10434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10434" t="s">
+        <v>9206</v>
+      </c>
+    </row>
+    <row r="10435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10435" t="s">
+        <v>9207</v>
+      </c>
+    </row>
+    <row r="10436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10436" t="s">
+        <v>9208</v>
+      </c>
+    </row>
+    <row r="10437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10437" t="s">
+        <v>9209</v>
+      </c>
+    </row>
+    <row r="10438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10438" t="s">
+        <v>9210</v>
+      </c>
+    </row>
+    <row r="10439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10439" t="s">
+        <v>9211</v>
+      </c>
+    </row>
+    <row r="10440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10440" t="s">
+        <v>9212</v>
+      </c>
+    </row>
+    <row r="10441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10441" t="s">
+        <v>9213</v>
+      </c>
+    </row>
+    <row r="10442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10442" t="s">
+        <v>9214</v>
+      </c>
+    </row>
+    <row r="10443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10443" t="s">
+        <v>9215</v>
+      </c>
+    </row>
+    <row r="10444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10444" t="s">
+        <v>9216</v>
+      </c>
+    </row>
+    <row r="10445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10445" t="s">
+        <v>9217</v>
+      </c>
+    </row>
+    <row r="10446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10446" t="s">
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="10447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10447" t="s">
+        <v>9218</v>
+      </c>
+    </row>
+    <row r="10448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10448" t="s">
+        <v>9219</v>
+      </c>
+    </row>
+    <row r="10449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10449" t="s">
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="10450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10450" t="s">
+        <v>9221</v>
+      </c>
+    </row>
+    <row r="10451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10451" t="s">
+        <v>9222</v>
+      </c>
+    </row>
+    <row r="10452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10452" t="s">
+        <v>9223</v>
+      </c>
+    </row>
+    <row r="10453" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10453" t="s">
+        <v>9224</v>
+      </c>
+    </row>
+    <row r="10454" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10454" t="s">
+        <v>9225</v>
+      </c>
+    </row>
+    <row r="10455" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10455" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="10456" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10456" t="s">
+        <v>9226</v>
+      </c>
+    </row>
+    <row r="10457" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10457" t="s">
+        <v>9227</v>
+      </c>
+    </row>
+    <row r="10458" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10458" t="s">
+        <v>9228</v>
+      </c>
+    </row>
+    <row r="10459" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10459" t="s">
+        <v>9229</v>
+      </c>
+    </row>
+    <row r="10460" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10460" t="s">
+        <v>8271</v>
+      </c>
+    </row>
+    <row r="10461" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10461" t="s">
+        <v>9230</v>
+      </c>
+    </row>
+    <row r="10462" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10462" t="s">
+        <v>9231</v>
+      </c>
+    </row>
+    <row r="10463" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10463" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="10464" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10464" t="s">
+        <v>9232</v>
+      </c>
+    </row>
+    <row r="10465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10465" t="s">
+        <v>9233</v>
+      </c>
+    </row>
+    <row r="10466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10466" t="s">
+        <v>9234</v>
+      </c>
+    </row>
+    <row r="10467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10467" t="s">
+        <v>9235</v>
+      </c>
+    </row>
+    <row r="10468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10468" t="s">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="10469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10469" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="10470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10470" t="s">
+        <v>9236</v>
+      </c>
+    </row>
+    <row r="10471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10471" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="10472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10472" t="s">
+        <v>9237</v>
+      </c>
+    </row>
+    <row r="10473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10473" t="s">
+        <v>9238</v>
+      </c>
+    </row>
+    <row r="10474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10474" t="s">
+        <v>9239</v>
+      </c>
+    </row>
+    <row r="10475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10475" t="s">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="10476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10476" t="s">
+        <v>9241</v>
+      </c>
+    </row>
+    <row r="10477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10477" t="s">
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="10478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10478" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10479" t="s">
+        <v>9242</v>
+      </c>
+    </row>
+    <row r="10480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10480" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="10481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10481" t="s">
+        <v>9243</v>
+      </c>
+    </row>
+    <row r="10482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10482" t="s">
+        <v>9244</v>
+      </c>
+    </row>
+    <row r="10483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10483" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="10484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10484" t="s">
+        <v>9245</v>
+      </c>
+    </row>
+    <row r="10485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10485" t="s">
+        <v>9246</v>
+      </c>
+    </row>
+    <row r="10486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10486" t="s">
+        <v>9247</v>
+      </c>
+    </row>
+    <row r="10487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10487" t="s">
+        <v>9248</v>
+      </c>
+    </row>
+    <row r="10488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10488" t="s">
+        <v>6870</v>
+      </c>
+    </row>
+    <row r="10489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10489" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="10490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10490" t="s">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="10491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10491" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="10492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10492" t="s">
+        <v>9249</v>
+      </c>
+    </row>
+    <row r="10493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10493" t="s">
+        <v>9250</v>
+      </c>
+    </row>
+    <row r="10494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10494" t="s">
+        <v>8655</v>
+      </c>
+    </row>
+    <row r="10495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10495" t="s">
+        <v>9251</v>
+      </c>
+    </row>
+    <row r="10496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10496" t="s">
+        <v>9252</v>
+      </c>
+    </row>
+    <row r="10497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10497" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="10498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10498" t="s">
+        <v>9253</v>
+      </c>
+    </row>
+    <row r="10499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10499" t="s">
+        <v>9254</v>
+      </c>
+    </row>
+    <row r="10500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10500" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="10501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10501" t="s">
+        <v>9255</v>
+      </c>
+    </row>
+    <row r="10502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10502" t="s">
+        <v>9256</v>
+      </c>
+    </row>
+    <row r="10503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10503" t="s">
+        <v>9257</v>
+      </c>
+    </row>
+    <row r="10504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10504" t="s">
+        <v>6594</v>
+      </c>
+    </row>
+    <row r="10505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10505" t="s">
+        <v>9258</v>
+      </c>
+    </row>
+    <row r="10506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10506" t="s">
+        <v>9259</v>
+      </c>
+    </row>
+    <row r="10507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10507" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="10508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10508" t="s">
+        <v>9260</v>
+      </c>
+    </row>
+    <row r="10509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10509" t="s">
+        <v>9261</v>
+      </c>
+    </row>
+    <row r="10510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10510" t="s">
+        <v>9262</v>
+      </c>
+    </row>
+    <row r="10511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10511" t="s">
+        <v>8429</v>
+      </c>
+    </row>
+    <row r="10512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10512" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="10513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10513" t="s">
+        <v>9263</v>
+      </c>
+    </row>
+    <row r="10514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10514" t="s">
+        <v>9264</v>
+      </c>
+    </row>
+    <row r="10515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10515" t="s">
+        <v>9265</v>
+      </c>
+    </row>
+    <row r="10516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10516" t="s">
+        <v>9266</v>
+      </c>
+    </row>
+    <row r="10517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10517" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="10518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10518" t="s">
+        <v>9267</v>
+      </c>
+    </row>
+    <row r="10519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10519" t="s">
+        <v>9268</v>
+      </c>
+    </row>
+    <row r="10520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10520" t="s">
+        <v>9269</v>
+      </c>
+    </row>
+    <row r="10521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10521" t="s">
+        <v>9270</v>
+      </c>
+    </row>
+    <row r="10522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10522" t="s">
+        <v>9271</v>
+      </c>
+    </row>
+    <row r="10523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10523" t="s">
+        <v>9272</v>
+      </c>
+    </row>
+    <row r="10524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10524" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10525" t="s">
+        <v>9273</v>
+      </c>
+    </row>
+    <row r="10526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10526" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="10527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10527" t="s">
+        <v>9274</v>
+      </c>
+    </row>
+    <row r="10528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10528" t="s">
+        <v>9275</v>
+      </c>
+    </row>
+    <row r="10529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10529" t="s">
+        <v>9276</v>
+      </c>
+    </row>
+    <row r="10530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10530" t="s">
+        <v>9277</v>
+      </c>
+    </row>
+    <row r="10531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10531" t="s">
+        <v>9278</v>
+      </c>
+    </row>
+    <row r="10532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10532" t="s">
+        <v>9279</v>
+      </c>
+    </row>
+    <row r="10533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10533" t="s">
+        <v>9280</v>
+      </c>
+    </row>
+    <row r="10534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10534" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="10535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10535" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="10536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10536" t="s">
+        <v>9281</v>
+      </c>
+    </row>
+    <row r="10537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10537" t="s">
+        <v>8620</v>
+      </c>
+    </row>
+    <row r="10538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10538" t="s">
+        <v>9282</v>
+      </c>
+    </row>
+    <row r="10539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10539" t="s">
+        <v>9283</v>
+      </c>
+    </row>
+    <row r="10540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10540" t="s">
+        <v>9284</v>
+      </c>
+    </row>
+    <row r="10541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10541" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="10542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10542" t="s">
+        <v>9285</v>
+      </c>
+    </row>
+    <row r="10543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10543" t="s">
+        <v>9286</v>
+      </c>
+    </row>
+    <row r="10544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10544" t="s">
+        <v>9287</v>
+      </c>
+    </row>
+    <row r="10545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10545" t="s">
+        <v>9288</v>
+      </c>
+    </row>
+    <row r="10546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10546" t="s">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="10547" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10547" t="s">
+        <v>9290</v>
+      </c>
+    </row>
+    <row r="10548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10548" t="s">
+        <v>9291</v>
+      </c>
+    </row>
+    <row r="10549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10549" t="s">
+        <v>9292</v>
+      </c>
+    </row>
+    <row r="10550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10550" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10551" t="s">
+        <v>9293</v>
+      </c>
+    </row>
+    <row r="10552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10552" t="s">
+        <v>9294</v>
+      </c>
+    </row>
+    <row r="10553" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10553" t="s">
+        <v>6633</v>
+      </c>
+    </row>
+    <row r="10554" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10554" t="s">
+        <v>6208</v>
+      </c>
+    </row>
+    <row r="10555" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10555" t="s">
+        <v>9295</v>
+      </c>
+    </row>
+    <row r="10556" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10556" t="s">
+        <v>5776</v>
+      </c>
+    </row>
+    <row r="10557" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10557" t="s">
+        <v>9296</v>
+      </c>
+    </row>
+    <row r="10558" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10558" t="s">
+        <v>5363</v>
+      </c>
+    </row>
+    <row r="10559" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10559" t="s">
+        <v>9297</v>
+      </c>
+    </row>
+    <row r="10560" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10560" t="s">
+        <v>9298</v>
+      </c>
+    </row>
+    <row r="10561" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10561" t="s">
+        <v>9299</v>
+      </c>
+    </row>
+    <row r="10562" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10562" t="s">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="10563" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10563" t="s">
+        <v>9301</v>
+      </c>
+    </row>
+    <row r="10564" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10564" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="10565" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10565" t="s">
+        <v>8149</v>
+      </c>
+    </row>
+    <row r="10566" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10566" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="10567" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10567" t="s">
+        <v>9302</v>
+      </c>
+    </row>
+    <row r="10568" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10568" t="s">
+        <v>9303</v>
+      </c>
+    </row>
+    <row r="10569" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10569" t="s">
+        <v>9304</v>
+      </c>
+    </row>
+    <row r="10570" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10570" t="s">
+        <v>9305</v>
+      </c>
+    </row>
+    <row r="10571" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10571" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="10572" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10572" t="s">
+        <v>9306</v>
+      </c>
+    </row>
+    <row r="10573" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10573" t="s">
+        <v>9307</v>
+      </c>
+    </row>
+    <row r="10574" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10574" t="s">
+        <v>9308</v>
+      </c>
+    </row>
+    <row r="10575" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10575" t="s">
+        <v>8387</v>
+      </c>
+    </row>
+    <row r="10576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10576" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="10577" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10577" t="s">
+        <v>9309</v>
+      </c>
+    </row>
+    <row r="10578" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10578" t="s">
+        <v>9310</v>
+      </c>
+    </row>
+    <row r="10579" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10579" t="s">
+        <v>9311</v>
+      </c>
+    </row>
+    <row r="10580" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10580" t="s">
+        <v>9312</v>
+      </c>
+    </row>
+    <row r="10581" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10581" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="10582" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10582" t="s">
+        <v>9313</v>
+      </c>
+    </row>
+    <row r="10583" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10583" t="s">
+        <v>9314</v>
+      </c>
+    </row>
+    <row r="10584" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10584" t="s">
+        <v>9315</v>
+      </c>
+    </row>
+    <row r="10585" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10585" t="s">
+        <v>9316</v>
+      </c>
+    </row>
+    <row r="10586" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10586" t="s">
+        <v>7177</v>
+      </c>
+    </row>
+    <row r="10587" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10587" t="s">
+        <v>9317</v>
+      </c>
+    </row>
+    <row r="10588" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10588" t="s">
+        <v>9318</v>
+      </c>
+    </row>
+    <row r="10589" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10589" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="10590" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10590" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10591" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10591" t="s">
+        <v>9319</v>
+      </c>
+    </row>
+    <row r="10592" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10592" t="s">
+        <v>9320</v>
+      </c>
+    </row>
+    <row r="10593" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10593" t="s">
+        <v>9321</v>
+      </c>
+    </row>
+    <row r="10594" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10594" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="10595" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10595" t="s">
+        <v>9322</v>
+      </c>
+    </row>
+    <row r="10596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10596" t="s">
+        <v>9323</v>
+      </c>
+    </row>
+    <row r="10597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10597" t="s">
+        <v>9324</v>
+      </c>
+    </row>
+    <row r="10598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10598" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="10599" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10599" t="s">
+        <v>9325</v>
+      </c>
+    </row>
+    <row r="10600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10600" t="s">
+        <v>9326</v>
+      </c>
+    </row>
+    <row r="10601" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10601" t="s">
+        <v>9327</v>
+      </c>
+    </row>
+    <row r="10602" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10602" t="s">
+        <v>9328</v>
+      </c>
+    </row>
+    <row r="10603" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10603" t="s">
+        <v>9329</v>
+      </c>
+    </row>
+    <row r="10604" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10604" t="s">
+        <v>9330</v>
+      </c>
+    </row>
+    <row r="10605" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10605" t="s">
+        <v>9331</v>
+      </c>
+    </row>
+    <row r="10606" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10606" t="s">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="10607" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10607" t="s">
+        <v>7958</v>
+      </c>
+    </row>
+    <row r="10608" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10608" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="10609" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10609" t="s">
+        <v>9332</v>
+      </c>
+    </row>
+    <row r="10610" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10610" t="s">
+        <v>9333</v>
+      </c>
+    </row>
+    <row r="10611" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10611" t="s">
+        <v>9334</v>
+      </c>
+    </row>
+    <row r="10612" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10612" t="s">
+        <v>9335</v>
+      </c>
+    </row>
+    <row r="10613" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10613" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="10614" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10614" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10615" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10615" t="s">
+        <v>9336</v>
+      </c>
+    </row>
+    <row r="10616" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10616" t="s">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="10617" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10617" t="s">
+        <v>9337</v>
+      </c>
+    </row>
+    <row r="10618" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10618" t="s">
+        <v>9338</v>
+      </c>
+    </row>
+    <row r="10619" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10619" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="10620" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10620" t="s">
+        <v>9339</v>
+      </c>
+    </row>
+    <row r="10621" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10621" t="s">
+        <v>9340</v>
+      </c>
+    </row>
+    <row r="10622" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10622" t="s">
+        <v>7791</v>
+      </c>
+    </row>
+    <row r="10623" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10623" t="s">
+        <v>9341</v>
+      </c>
+    </row>
+    <row r="10624" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10624" t="s">
+        <v>9342</v>
+      </c>
+    </row>
+    <row r="10625" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10625" t="s">
+        <v>9343</v>
+      </c>
+    </row>
+    <row r="10626" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10626" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="10627" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10627" t="s">
+        <v>9344</v>
+      </c>
+    </row>
+    <row r="10628" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10628" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="10629" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10629" t="s">
+        <v>9345</v>
+      </c>
+    </row>
+    <row r="10630" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10630" t="s">
+        <v>9346</v>
+      </c>
+    </row>
+    <row r="10631" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10631" t="s">
+        <v>9347</v>
+      </c>
+    </row>
+    <row r="10632" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10632" t="s">
+        <v>9348</v>
+      </c>
+    </row>
+    <row r="10633" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10633" t="s">
+        <v>9349</v>
+      </c>
+    </row>
+    <row r="10634" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10634" t="s">
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="10635" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10635" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="10636" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10636" t="s">
+        <v>6805</v>
+      </c>
+    </row>
+    <row r="10637" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10637" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="10638" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10638" t="s">
+        <v>9351</v>
+      </c>
+    </row>
+    <row r="10639" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10639" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="10640" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10640" t="s">
+        <v>9352</v>
+      </c>
+    </row>
+    <row r="10641" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10641" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="10642" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10642" t="s">
+        <v>9353</v>
+      </c>
+    </row>
+    <row r="10643" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10643" t="s">
+        <v>9354</v>
+      </c>
+    </row>
+    <row r="10644" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10644" t="s">
+        <v>9355</v>
+      </c>
+    </row>
+    <row r="10645" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10645" t="s">
+        <v>9356</v>
+      </c>
+    </row>
+    <row r="10646" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10646" t="s">
+        <v>9357</v>
+      </c>
+    </row>
+    <row r="10647" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10647" t="s">
+        <v>9358</v>
+      </c>
+    </row>
+    <row r="10648" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10648" t="s">
+        <v>9359</v>
+      </c>
+    </row>
+    <row r="10649" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10649" t="s">
+        <v>6171</v>
+      </c>
+    </row>
+    <row r="10650" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10650" t="s">
+        <v>5552</v>
+      </c>
+    </row>
+    <row r="10651" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10651" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="10652" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10652" t="s">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="10653" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10653" t="s">
+        <v>9361</v>
+      </c>
+    </row>
+    <row r="10654" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10654" t="s">
+        <v>9362</v>
+      </c>
+    </row>
+    <row r="10655" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10655" t="s">
+        <v>9363</v>
+      </c>
+    </row>
+    <row r="10656" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10656" t="s">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="10657" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10657" t="s">
+        <v>9364</v>
+      </c>
+    </row>
+    <row r="10658" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10658" t="s">
+        <v>9365</v>
+      </c>
+    </row>
+    <row r="10659" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10659" t="s">
+        <v>9366</v>
+      </c>
+    </row>
+    <row r="10660" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10660" t="s">
+        <v>9367</v>
+      </c>
+    </row>
+    <row r="10661" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10661" t="s">
+        <v>9368</v>
+      </c>
+    </row>
+    <row r="10662" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10662" t="s">
+        <v>9369</v>
+      </c>
+    </row>
+    <row r="10663" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10663" t="s">
+        <v>9370</v>
+      </c>
+    </row>
+    <row r="10664" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10664" t="s">
+        <v>9371</v>
+      </c>
+    </row>
+    <row r="10665" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10665" t="s">
+        <v>9372</v>
+      </c>
+    </row>
+    <row r="10666" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10666" t="s">
+        <v>9373</v>
+      </c>
+    </row>
+    <row r="10667" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10667" t="s">
+        <v>7401</v>
+      </c>
+    </row>
+    <row r="10668" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10668" t="s">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="10669" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10669" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="10670" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10670" t="s">
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="10671" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10671" t="s">
+        <v>9375</v>
+      </c>
+    </row>
+    <row r="10672" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10672" t="s">
+        <v>9376</v>
+      </c>
+    </row>
+    <row r="10673" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10673" t="s">
+        <v>9377</v>
+      </c>
+    </row>
+    <row r="10674" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10674" t="s">
+        <v>9378</v>
+      </c>
+    </row>
+    <row r="10675" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10675" t="s">
+        <v>9379</v>
+      </c>
+    </row>
+    <row r="10676" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10676" t="s">
+        <v>9380</v>
+      </c>
+    </row>
+    <row r="10677" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10677" t="s">
+        <v>9381</v>
+      </c>
+    </row>
+    <row r="10678" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10678" t="s">
+        <v>9382</v>
+      </c>
+    </row>
+    <row r="10679" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10679" t="s">
+        <v>9383</v>
+      </c>
+    </row>
+    <row r="10680" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10680" t="s">
+        <v>9384</v>
+      </c>
+    </row>
+    <row r="10681" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10681" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="10682" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10682" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="10683" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10683" t="s">
+        <v>9385</v>
+      </c>
+    </row>
+    <row r="10684" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10684" t="s">
+        <v>9386</v>
+      </c>
+    </row>
+    <row r="10685" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10685" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="10686" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10686" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="10687" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10687" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="10688" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10688" t="s">
+        <v>9387</v>
+      </c>
+    </row>
+    <row r="10689" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10689" t="s">
+        <v>9388</v>
+      </c>
+    </row>
+    <row r="10690" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10690" t="s">
+        <v>9389</v>
+      </c>
+    </row>
+    <row r="10691" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10691" t="s">
+        <v>9390</v>
+      </c>
+    </row>
+    <row r="10692" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10692" t="s">
+        <v>9391</v>
+      </c>
+    </row>
+    <row r="10693" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10693" t="s">
+        <v>9392</v>
+      </c>
+    </row>
+    <row r="10694" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10694" t="s">
+        <v>9393</v>
+      </c>
+    </row>
+    <row r="10695" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10695" t="s">
+        <v>6921</v>
+      </c>
+    </row>
+    <row r="10696" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10696" t="s">
+        <v>9394</v>
+      </c>
+    </row>
+    <row r="10697" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10697" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="10698" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10698" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="10699" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10699" t="s">
+        <v>9395</v>
+      </c>
+    </row>
+    <row r="10700" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10700" t="s">
+        <v>9396</v>
+      </c>
+    </row>
+    <row r="10701" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10701" t="s">
+        <v>9397</v>
+      </c>
+    </row>
+    <row r="10702" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10702" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="10703" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10703" t="s">
+        <v>9398</v>
+      </c>
+    </row>
+    <row r="10704" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10704" t="s">
+        <v>9399</v>
+      </c>
+    </row>
+    <row r="10705" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10705" t="s">
+        <v>8352</v>
+      </c>
+    </row>
+    <row r="10706" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10706" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="10707" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10707" t="s">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="10708" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10708" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="10709" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10709" t="s">
+        <v>9401</v>
+      </c>
+    </row>
+    <row r="10710" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10710" t="s">
+        <v>9402</v>
+      </c>
+    </row>
+    <row r="10711" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10711" t="s">
+        <v>9403</v>
+      </c>
+    </row>
+    <row r="10712" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10712" t="s">
+        <v>9404</v>
+      </c>
+    </row>
+    <row r="10713" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10713" t="s">
+        <v>9405</v>
+      </c>
+    </row>
+    <row r="10714" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10714" t="s">
+        <v>9406</v>
+      </c>
+    </row>
+    <row r="10715" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10715" t="s">
+        <v>9407</v>
+      </c>
+    </row>
+    <row r="10716" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10716" t="s">
+        <v>9408</v>
+      </c>
+    </row>
+    <row r="10717" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10717" t="s">
+        <v>9409</v>
+      </c>
+    </row>
+    <row r="10718" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10718" t="s">
+        <v>9410</v>
+      </c>
+    </row>
+    <row r="10719" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10719" t="s">
+        <v>7149</v>
+      </c>
+    </row>
+    <row r="10720" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10720" t="s">
+        <v>9411</v>
+      </c>
+    </row>
+    <row r="10721" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10721" t="s">
+        <v>9412</v>
+      </c>
+    </row>
+    <row r="10722" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10722" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="10723" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10723" t="s">
+        <v>9413</v>
+      </c>
+    </row>
+    <row r="10724" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10724" t="s">
+        <v>9414</v>
+      </c>
+    </row>
+    <row r="10725" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10725" t="s">
+        <v>9415</v>
+      </c>
+    </row>
+    <row r="10726" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10726" t="s">
+        <v>9416</v>
+      </c>
+    </row>
+    <row r="10727" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10727" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="10728" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10728" t="s">
+        <v>9418</v>
+      </c>
+    </row>
+    <row r="10729" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10729" t="s">
+        <v>9419</v>
+      </c>
+    </row>
+    <row r="10730" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10730" t="s">
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="10731" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10731" t="s">
+        <v>9421</v>
+      </c>
+    </row>
+    <row r="10732" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10732" t="s">
+        <v>9422</v>
+      </c>
+    </row>
+    <row r="10733" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10733" t="s">
+        <v>9423</v>
+      </c>
+    </row>
+    <row r="10734" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10734" t="s">
+        <v>9424</v>
+      </c>
+    </row>
+    <row r="10735" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10735" t="s">
+        <v>9425</v>
+      </c>
+    </row>
+    <row r="10736" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10736" t="s">
+        <v>9426</v>
+      </c>
+    </row>
+    <row r="10737" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10737" t="s">
+        <v>9427</v>
+      </c>
+    </row>
+    <row r="10738" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10738" t="s">
+        <v>9428</v>
+      </c>
+    </row>
+    <row r="10739" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10739" t="s">
+        <v>9429</v>
+      </c>
+    </row>
+    <row r="10740" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10740" t="s">
+        <v>9430</v>
+      </c>
+    </row>
+    <row r="10741" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10741" t="s">
+        <v>9431</v>
+      </c>
+    </row>
+    <row r="10742" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10742" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="10743" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10743" t="s">
+        <v>9432</v>
+      </c>
+    </row>
+    <row r="10744" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10744" t="s">
+        <v>9433</v>
+      </c>
+    </row>
+    <row r="10745" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10745" t="s">
+        <v>9434</v>
+      </c>
+    </row>
+    <row r="10746" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10746" t="s">
+        <v>6739</v>
+      </c>
+    </row>
+    <row r="10747" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10747" t="s">
+        <v>6933</v>
+      </c>
+    </row>
+    <row r="10748" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10748" t="s">
+        <v>9435</v>
+      </c>
+    </row>
+    <row r="10749" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10749" t="s">
+        <v>9436</v>
+      </c>
+    </row>
+    <row r="10750" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10750" t="s">
+        <v>9437</v>
+      </c>
+    </row>
+    <row r="10751" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10751" t="s">
+        <v>9438</v>
+      </c>
+    </row>
+    <row r="10752" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10752" t="s">
+        <v>9439</v>
+      </c>
+    </row>
+    <row r="10753" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10753" t="s">
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="10754" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10754" t="s">
+        <v>9440</v>
+      </c>
+    </row>
+    <row r="10755" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10755" t="s">
+        <v>9441</v>
+      </c>
+    </row>
+    <row r="10756" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10756" t="s">
+        <v>9442</v>
+      </c>
+    </row>
+    <row r="10757" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10757" t="s">
+        <v>9443</v>
+      </c>
+    </row>
+    <row r="10758" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10758" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10759" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10759" t="s">
+        <v>9444</v>
+      </c>
+    </row>
+    <row r="10760" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10760" t="s">
+        <v>9445</v>
+      </c>
+    </row>
+    <row r="10761" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10761" t="s">
+        <v>9446</v>
+      </c>
+    </row>
+    <row r="10762" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10762" t="s">
+        <v>9447</v>
+      </c>
+    </row>
+    <row r="10763" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10763" t="s">
+        <v>9448</v>
+      </c>
+    </row>
+    <row r="10764" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10764" t="s">
+        <v>9449</v>
+      </c>
+    </row>
+    <row r="10765" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10765" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="10766" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10766" t="s">
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="10767" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10767" t="s">
+        <v>9451</v>
+      </c>
+    </row>
+    <row r="10768" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10768" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="10769" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10769" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="10770" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10770" t="s">
+        <v>9452</v>
+      </c>
+    </row>
+    <row r="10771" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10771" t="s">
+        <v>9453</v>
+      </c>
+    </row>
+    <row r="10772" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10772" t="s">
+        <v>9454</v>
+      </c>
+    </row>
+    <row r="10773" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10773" t="s">
+        <v>9455</v>
+      </c>
+    </row>
+    <row r="10774" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10774" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="10775" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10775" t="s">
+        <v>9456</v>
+      </c>
+    </row>
+    <row r="10776" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10776" t="s">
+        <v>9457</v>
+      </c>
+    </row>
+    <row r="10777" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10777" t="s">
+        <v>9458</v>
+      </c>
+    </row>
+    <row r="10778" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10778" t="s">
+        <v>9459</v>
+      </c>
+    </row>
+    <row r="10779" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10779" t="s">
+        <v>9460</v>
+      </c>
+    </row>
+    <row r="10780" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10780" t="s">
+        <v>9461</v>
+      </c>
+    </row>
+    <row r="10781" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10781" t="s">
+        <v>9462</v>
+      </c>
+    </row>
+    <row r="10782" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10782" t="s">
+        <v>9463</v>
+      </c>
+    </row>
+    <row r="10783" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10783" t="s">
+        <v>9464</v>
+      </c>
+    </row>
+    <row r="10784" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10784" t="s">
+        <v>9465</v>
+      </c>
+    </row>
+    <row r="10785" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10785" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="10786" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10786" t="s">
+        <v>7175</v>
+      </c>
+    </row>
+    <row r="10787" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10787" t="s">
+        <v>9466</v>
+      </c>
+    </row>
+    <row r="10788" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10788" t="s">
+        <v>9467</v>
+      </c>
+    </row>
+    <row r="10789" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10789" t="s">
+        <v>9468</v>
+      </c>
+    </row>
+    <row r="10790" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10790" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="10791" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10791" t="s">
+        <v>9469</v>
+      </c>
+    </row>
+    <row r="10792" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10792" t="s">
+        <v>9470</v>
+      </c>
+    </row>
+    <row r="10793" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10793" t="s">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="10794" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10794" t="s">
+        <v>9471</v>
+      </c>
+    </row>
+    <row r="10795" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10795" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="10796" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10796" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="10797" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10797" t="s">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="10798" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10798" t="s">
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="10799" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10799" t="s">
+        <v>9472</v>
+      </c>
+    </row>
+    <row r="10800" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10800" t="s">
+        <v>9473</v>
+      </c>
+    </row>
+    <row r="10801" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10801" t="s">
+        <v>9474</v>
+      </c>
+    </row>
+    <row r="10802" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10802" t="s">
+        <v>9475</v>
+      </c>
+    </row>
+    <row r="10803" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10803" t="s">
+        <v>9476</v>
+      </c>
+    </row>
+    <row r="10804" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10804" t="s">
+        <v>9477</v>
+      </c>
+    </row>
+    <row r="10805" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10805" t="s">
+        <v>9478</v>
+      </c>
+    </row>
+    <row r="10806" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10806" t="s">
+        <v>7937</v>
+      </c>
+    </row>
+    <row r="10807" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10807" t="s">
+        <v>9479</v>
+      </c>
+    </row>
+    <row r="10808" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10808" t="s">
+        <v>9480</v>
+      </c>
+    </row>
+    <row r="10809" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10809" t="s">
+        <v>9481</v>
+      </c>
+    </row>
+    <row r="10810" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10810" t="s">
+        <v>9482</v>
+      </c>
+    </row>
+    <row r="10811" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10811" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="10812" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10812" t="s">
+        <v>9483</v>
+      </c>
+    </row>
+    <row r="10813" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10813" t="s">
+        <v>9484</v>
+      </c>
+    </row>
+    <row r="10814" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10814" t="s">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="10815" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10815" t="s">
+        <v>9485</v>
+      </c>
+    </row>
+    <row r="10816" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10816" t="s">
+        <v>9486</v>
+      </c>
+    </row>
+    <row r="10817" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10817" t="s">
+        <v>9487</v>
+      </c>
+    </row>
+    <row r="10818" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10818" t="s">
+        <v>9488</v>
+      </c>
+    </row>
+    <row r="10819" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10819" t="s">
+        <v>9489</v>
+      </c>
+    </row>
+    <row r="10820" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10820" t="s">
+        <v>9490</v>
+      </c>
+    </row>
+    <row r="10821" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10821" t="s">
+        <v>9491</v>
+      </c>
+    </row>
+    <row r="10822" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10822" t="s">
+        <v>7965</v>
+      </c>
+    </row>
+    <row r="10823" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10823" t="s">
+        <v>9492</v>
+      </c>
+    </row>
+    <row r="10824" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10824" t="s">
+        <v>9493</v>
+      </c>
+    </row>
+    <row r="10825" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10825" t="s">
+        <v>9494</v>
+      </c>
+    </row>
+    <row r="10826" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10826" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="10827" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10827" t="s">
+        <v>9495</v>
+      </c>
+    </row>
+    <row r="10828" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10828" t="s">
+        <v>9496</v>
+      </c>
+    </row>
+    <row r="10829" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10829" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="10830" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10830" t="s">
+        <v>9497</v>
+      </c>
+    </row>
+    <row r="10831" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10831" t="s">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="10832" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10832" t="s">
+        <v>9499</v>
+      </c>
+    </row>
+    <row r="10833" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10833" t="s">
+        <v>7612</v>
+      </c>
+    </row>
+    <row r="10834" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10834" t="s">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="10835" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10835" t="s">
+        <v>9501</v>
+      </c>
+    </row>
+    <row r="10836" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10836" t="s">
+        <v>9502</v>
+      </c>
+    </row>
+    <row r="10837" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10837" t="s">
+        <v>9503</v>
+      </c>
+    </row>
+    <row r="10838" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10838" t="s">
+        <v>9504</v>
+      </c>
+    </row>
+    <row r="10839" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10839" t="s">
+        <v>9505</v>
+      </c>
+    </row>
+    <row r="10840" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10840" t="s">
+        <v>9506</v>
+      </c>
+    </row>
+    <row r="10841" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10841" t="s">
+        <v>9507</v>
+      </c>
+    </row>
+    <row r="10842" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10842" t="s">
+        <v>9508</v>
+      </c>
+    </row>
+    <row r="10843" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10843" t="s">
+        <v>6074</v>
+      </c>
+    </row>
+    <row r="10844" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10844" t="s">
+        <v>9509</v>
+      </c>
+    </row>
+    <row r="10845" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10845" t="s">
+        <v>9510</v>
+      </c>
+    </row>
+    <row r="10846" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10846" t="s">
+        <v>9511</v>
+      </c>
+    </row>
+    <row r="10847" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10847" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="10848" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10848" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="10849" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10849" t="s">
+        <v>9512</v>
+      </c>
+    </row>
+    <row r="10850" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10850" t="s">
+        <v>9513</v>
+      </c>
+    </row>
+    <row r="10851" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10851" t="s">
+        <v>9514</v>
+      </c>
+    </row>
+    <row r="10852" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10852" t="s">
+        <v>9515</v>
+      </c>
+    </row>
+    <row r="10853" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10853" t="s">
+        <v>9516</v>
+      </c>
+    </row>
+    <row r="10854" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10854" t="s">
+        <v>9517</v>
+      </c>
+    </row>
+    <row r="10855" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10855" t="s">
+        <v>9518</v>
+      </c>
+    </row>
+    <row r="10856" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10856" t="s">
+        <v>9519</v>
+      </c>
+    </row>
+    <row r="10857" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10857" t="s">
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="10858" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10858" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="10859" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10859" t="s">
+        <v>9521</v>
+      </c>
+    </row>
+    <row r="10860" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10860" t="s">
+        <v>9522</v>
+      </c>
+    </row>
+    <row r="10861" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10861" t="s">
+        <v>9523</v>
+      </c>
+    </row>
+    <row r="10862" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10862" t="s">
+        <v>7170</v>
+      </c>
+    </row>
+    <row r="10863" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10863" t="s">
+        <v>9524</v>
+      </c>
+    </row>
+    <row r="10864" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10864" t="s">
+        <v>9525</v>
+      </c>
+    </row>
+    <row r="10865" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10865" t="s">
+        <v>9526</v>
+      </c>
+    </row>
+    <row r="10866" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10866" t="s">
+        <v>9527</v>
+      </c>
+    </row>
+    <row r="10867" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10867" t="s">
+        <v>9528</v>
+      </c>
+    </row>
+    <row r="10868" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10868" t="s">
+        <v>9529</v>
+      </c>
+    </row>
+    <row r="10869" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10869" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="10870" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10870" t="s">
+        <v>9530</v>
+      </c>
+    </row>
+    <row r="10871" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10871" t="s">
+        <v>7092</v>
+      </c>
+    </row>
+    <row r="10872" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10872" t="s">
+        <v>9531</v>
+      </c>
+    </row>
+    <row r="10873" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10873" t="s">
+        <v>6249</v>
+      </c>
+    </row>
+    <row r="10874" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10874" t="s">
+        <v>9532</v>
+      </c>
+    </row>
+    <row r="10875" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10875" t="s">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="10876" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10876" t="s">
+        <v>9533</v>
+      </c>
+    </row>
+    <row r="10877" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10877" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="10878" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10878" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="10879" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10879" t="s">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="10880" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10880" t="s">
+        <v>9535</v>
+      </c>
+    </row>
+    <row r="10881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10881" t="s">
+        <v>9536</v>
+      </c>
+    </row>
+    <row r="10882" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10882" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10883" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10883" t="s">
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="10884" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10884" t="s">
+        <v>9537</v>
+      </c>
+    </row>
+    <row r="10885" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10885" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="10886" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10886" t="s">
+        <v>9538</v>
+      </c>
+    </row>
+    <row r="10887" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10887" t="s">
+        <v>9539</v>
+      </c>
+    </row>
+    <row r="10888" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10888" t="s">
+        <v>9540</v>
+      </c>
+    </row>
+    <row r="10889" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10889" t="s">
+        <v>9541</v>
+      </c>
+    </row>
+    <row r="10890" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10890" t="s">
+        <v>9542</v>
+      </c>
+    </row>
+    <row r="10891" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10891" t="s">
+        <v>9543</v>
+      </c>
+    </row>
+    <row r="10892" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10892" t="s">
+        <v>9544</v>
+      </c>
+    </row>
+    <row r="10893" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10893" t="s">
+        <v>7068</v>
+      </c>
+    </row>
+    <row r="10894" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10894" t="s">
+        <v>9545</v>
+      </c>
+    </row>
+    <row r="10895" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10895" t="s">
+        <v>9546</v>
+      </c>
+    </row>
+    <row r="10896" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10896" t="s">
+        <v>9547</v>
+      </c>
+    </row>
+    <row r="10897" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10897" t="s">
+        <v>9548</v>
+      </c>
+    </row>
+    <row r="10898" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10898" t="s">
+        <v>9549</v>
+      </c>
+    </row>
+    <row r="10899" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10899" t="s">
+        <v>8296</v>
+      </c>
+    </row>
+    <row r="10900" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10900" t="s">
+        <v>1870</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/usernames_database_original.xlsx
+++ b/usernames_database_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujal Karmakar\Desktop\Desktop\Data Analyst\Instagram Data Scrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42A9E42-D611-4F1E-A7B8-1AD3002BBE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EC68BA-B237-48E1-9A87-6A13DD942515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29034,8 +29034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10060" workbookViewId="0">
-      <selection activeCell="F10069" sqref="F10069"/>
+    <sheetView tabSelected="1" topLeftCell="A10872" workbookViewId="0">
+      <selection activeCell="R10880" sqref="R10880"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
